--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\ESC\myESC-Particle-DEV\saves\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15552" windowHeight="6792" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Cal" sheetId="1" r:id="rId1"/>
+    <sheet name="Coupling" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -61,6 +67,57 @@
   </si>
   <si>
     <t>Calc PCNF</t>
+  </si>
+  <si>
+    <t>using 18</t>
+  </si>
+  <si>
+    <t>ESC amps</t>
+  </si>
+  <si>
+    <t>using 120</t>
+  </si>
+  <si>
+    <t>watts</t>
+  </si>
+  <si>
+    <t>using 12</t>
+  </si>
+  <si>
+    <t>volts</t>
+  </si>
+  <si>
+    <t>using 10</t>
+  </si>
+  <si>
+    <t>max amps</t>
+  </si>
+  <si>
+    <t>max rpm</t>
+  </si>
+  <si>
+    <t>kv</t>
+  </si>
+  <si>
+    <t>Num Poles</t>
+  </si>
+  <si>
+    <t>fan, rpm</t>
+  </si>
+  <si>
+    <t>gg, rpm</t>
+  </si>
+  <si>
+    <t>out, Hz</t>
+  </si>
+  <si>
+    <t>in, Hz</t>
+  </si>
+  <si>
+    <t>out, microsec</t>
+  </si>
+  <si>
+    <t>in, microsec</t>
   </si>
 </sst>
 </file>
@@ -126,6 +183,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -155,7 +215,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Cal!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -169,7 +229,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Cal!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -223,7 +283,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:f>Cal!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -285,8 +345,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213896192"/>
-        <c:axId val="213906560"/>
+        <c:axId val="197890816"/>
+        <c:axId val="197889248"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -296,7 +356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Cal!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -326,7 +386,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Cal!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -380,7 +440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$16</c:f>
+              <c:f>Cal!$H$2:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -442,11 +502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213913984"/>
-        <c:axId val="213908096"/>
+        <c:axId val="541223608"/>
+        <c:axId val="197884152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213896192"/>
+        <c:axId val="197890816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,12 +521,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213906560"/>
+        <c:crossAx val="197889248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213906560"/>
+        <c:axId val="197889248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -479,13 +539,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213896192"/>
+        <c:crossAx val="197890816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213908096"/>
+        <c:axId val="197884152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -497,13 +557,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213913984"/>
+        <c:crossAx val="541223608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213913984"/>
+        <c:axId val="541223608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213908096"/>
+        <c:crossAx val="197884152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -560,7 +620,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Cal!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -586,7 +646,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Cal!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -607,7 +667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Cal!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -672,8 +732,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213933440"/>
-        <c:axId val="213943424"/>
+        <c:axId val="541220864"/>
+        <c:axId val="539657592"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -683,7 +743,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Cal!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -700,7 +760,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Cal!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -721,7 +781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Cal!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -786,11 +846,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213950848"/>
-        <c:axId val="213944960"/>
+        <c:axId val="82059984"/>
+        <c:axId val="539654456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213933440"/>
+        <c:axId val="541220864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,12 +860,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213943424"/>
+        <c:crossAx val="539657592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213943424"/>
+        <c:axId val="539657592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,12 +876,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213933440"/>
+        <c:crossAx val="541220864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213944960"/>
+        <c:axId val="539654456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,12 +891,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213950848"/>
+        <c:crossAx val="82059984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213950848"/>
+        <c:axId val="82059984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213944960"/>
+        <c:crossAx val="539654456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -912,7 +972,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Cal!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +996,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Cal!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -993,7 +1053,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Cal!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1058,11 +1118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="341292160"/>
-        <c:axId val="341224832"/>
+        <c:axId val="547166696"/>
+        <c:axId val="547167088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="341292160"/>
+        <c:axId val="547166696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,12 +1151,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341224832"/>
+        <c:crossAx val="547167088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="341224832"/>
+        <c:axId val="547167088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,8 +1186,243 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341292160"/>
+        <c:crossAx val="547166696"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>50mm EDF Coupling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coupling!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fan, rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:backward val="10000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.23072747482255712"/>
+                  <c:y val="9.4504602437921553E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Coupling!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21111.893033075299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17401.39211136891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11673.151750972764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9829.6199213630407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12185.215272136475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17331.02253032929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Coupling!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15948.96331738437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12647.554806070824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7292.1730675741364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4841.8334409296313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7606.4908722109531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13239.187996469551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544643656"/>
+        <c:axId val="544644048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544643656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Generator Speed, rpm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544644048"/>
+        <c:crossesAt val="-5000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544644048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+          <c:min val="-5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fan Module Speed, rpm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544643656"/>
+        <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1243,6 +1538,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1286,7 +1618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1321,7 +1653,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1532,24 +1864,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="H1:H1048576 B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1587,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1399999999999999</v>
       </c>
@@ -1630,7 +1962,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>65</v>
       </c>
@@ -1670,7 +2002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>70</v>
       </c>
@@ -1711,7 +2043,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>75</v>
       </c>
@@ -1757,7 +2089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>77</v>
       </c>
@@ -1791,7 +2123,7 @@
         <v>14.493464079999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>79</v>
       </c>
@@ -1825,7 +2157,7 @@
         <v>15.429051919999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>81</v>
       </c>
@@ -1859,7 +2191,7 @@
         <v>16.114734079999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.55</v>
       </c>
@@ -1896,7 +2228,7 @@
         <v>17.444933119999995</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>88</v>
       </c>
@@ -1930,7 +2262,7 @@
         <v>18.824043579999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>92</v>
       </c>
@@ -1964,7 +2296,7 @@
         <v>20.627237499999996</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.79</v>
       </c>
@@ -2001,7 +2333,7 @@
         <v>21.852740479999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>100</v>
       </c>
@@ -2035,7 +2367,7 @@
         <v>23.272622720000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>105</v>
       </c>
@@ -2069,7 +2401,7 @@
         <v>24.910257919999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>110</v>
       </c>
@@ -2103,7 +2435,7 @@
         <v>26.324791579999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.14</v>
       </c>
@@ -2140,7 +2472,7 @@
         <v>27.97638208</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>120</v>
       </c>
@@ -2182,13 +2514,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.4</v>
+      </c>
+      <c r="B2">
+        <v>1421</v>
+      </c>
+      <c r="C2">
+        <v>1881</v>
+      </c>
+      <c r="D2">
+        <f>1/B2*1000000</f>
+        <v>703.72976776917665</v>
+      </c>
+      <c r="E2">
+        <f>1/C2*1000000</f>
+        <v>531.63211057947899</v>
+      </c>
+      <c r="F2">
+        <f>D2*60/$M$1</f>
+        <v>21111.893033075299</v>
+      </c>
+      <c r="G2">
+        <f>E2*60/$M$1</f>
+        <v>15948.96331738437</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1724</v>
+      </c>
+      <c r="C3">
+        <v>2372</v>
+      </c>
+      <c r="D3">
+        <f>1/B3*1000000</f>
+        <v>580.04640371229698</v>
+      </c>
+      <c r="E3">
+        <f>1/C3*1000000</f>
+        <v>421.58516020236084</v>
+      </c>
+      <c r="F3">
+        <f>D3*60/$M$1</f>
+        <v>17401.39211136891</v>
+      </c>
+      <c r="G3">
+        <f>E3*60/$M$1</f>
+        <v>12647.554806070824</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>2570</v>
+      </c>
+      <c r="C4">
+        <v>4114</v>
+      </c>
+      <c r="D4">
+        <f>1/B4*1000000</f>
+        <v>389.10505836575879</v>
+      </c>
+      <c r="E4">
+        <f>1/C4*1000000</f>
+        <v>243.07243558580456</v>
+      </c>
+      <c r="F4">
+        <f>D4*60/$M$1</f>
+        <v>11673.151750972764</v>
+      </c>
+      <c r="G4">
+        <f>E4*60/$M$1</f>
+        <v>7292.1730675741364</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <f>M2*M3</f>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.3</v>
+      </c>
+      <c r="B5">
+        <v>3052</v>
+      </c>
+      <c r="C5">
+        <v>6196</v>
+      </c>
+      <c r="D5">
+        <f>1/B5*1000000</f>
+        <v>327.653997378768</v>
+      </c>
+      <c r="E5">
+        <f>1/C5*1000000</f>
+        <v>161.39444803098772</v>
+      </c>
+      <c r="F5">
+        <f>D5*60/$M$1</f>
+        <v>9829.6199213630407</v>
+      </c>
+      <c r="G5">
+        <f>E5*60/$M$1</f>
+        <v>4841.8334409296313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>2462</v>
+      </c>
+      <c r="C6">
+        <v>3944</v>
+      </c>
+      <c r="D6">
+        <f>1/B6*1000000</f>
+        <v>406.17384240454913</v>
+      </c>
+      <c r="E6">
+        <f>1/C6*1000000</f>
+        <v>253.54969574036511</v>
+      </c>
+      <c r="F6">
+        <f>D6*60/$M$1</f>
+        <v>12185.215272136475</v>
+      </c>
+      <c r="G6">
+        <f>E6*60/$M$1</f>
+        <v>7606.4908722109531</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1731</v>
+      </c>
+      <c r="C7">
+        <v>2266</v>
+      </c>
+      <c r="D7">
+        <f>1/B7*1000000</f>
+        <v>577.70075101097632</v>
+      </c>
+      <c r="E7">
+        <f>1/C7*1000000</f>
+        <v>441.30626654898504</v>
+      </c>
+      <c r="F7">
+        <f>D7*60/$M$1</f>
+        <v>17331.02253032929</v>
+      </c>
+      <c r="G7">
+        <f>E7*60/$M$1</f>
+        <v>13239.187996469551</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <f>M6*M7</f>
+        <v>216</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2198,7 +2785,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15552" windowHeight="6792" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15552" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="Cal" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>in, microsec</t>
+  </si>
+  <si>
+    <t>I, A</t>
+  </si>
+  <si>
+    <t>V, vdc</t>
+  </si>
+  <si>
+    <t>P, W</t>
   </si>
 </sst>
 </file>
@@ -215,7 +224,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal!$G$1</c:f>
+              <c:f>Cal!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -283,7 +292,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$G$2:$G$16</c:f>
+              <c:f>Cal!$J$2:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -345,8 +354,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197890816"/>
-        <c:axId val="197889248"/>
+        <c:axId val="85116984"/>
+        <c:axId val="162626696"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -356,7 +365,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal!$H$1</c:f>
+              <c:f>Cal!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -440,7 +449,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$H$2:$H$16</c:f>
+              <c:f>Cal!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -502,11 +511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="541223608"/>
-        <c:axId val="197884152"/>
+        <c:axId val="162633360"/>
+        <c:axId val="162627088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197890816"/>
+        <c:axId val="85116984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197889248"/>
+        <c:crossAx val="162626696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197889248"/>
+        <c:axId val="162626696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -539,13 +548,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197890816"/>
+        <c:crossAx val="85116984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197884152"/>
+        <c:axId val="162627088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -557,13 +566,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541223608"/>
+        <c:crossAx val="162633360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="541223608"/>
+        <c:axId val="162633360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197884152"/>
+        <c:crossAx val="162627088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -732,8 +741,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="541220864"/>
-        <c:axId val="539657592"/>
+        <c:axId val="162627872"/>
+        <c:axId val="162633752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -743,7 +752,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal!$G$1</c:f>
+              <c:f>Cal!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,7 +790,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$G$2:$G$17</c:f>
+              <c:f>Cal!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -846,11 +855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82059984"/>
-        <c:axId val="539654456"/>
+        <c:axId val="162627480"/>
+        <c:axId val="162626304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="541220864"/>
+        <c:axId val="162627872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,12 +869,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539657592"/>
+        <c:crossAx val="162633752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539657592"/>
+        <c:axId val="162633752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,12 +885,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541220864"/>
+        <c:crossAx val="162627872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539654456"/>
+        <c:axId val="162626304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,12 +900,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82059984"/>
+        <c:crossAx val="162627480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82059984"/>
+        <c:axId val="162627480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539654456"/>
+        <c:crossAx val="162626304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -972,7 +981,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal!$H$1</c:f>
+              <c:f>Cal!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1053,7 +1062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$H$2:$H$17</c:f>
+              <c:f>Cal!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1118,11 +1127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547166696"/>
-        <c:axId val="547167088"/>
+        <c:axId val="162628656"/>
+        <c:axId val="162632184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547166696"/>
+        <c:axId val="162628656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,12 +1160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547167088"/>
+        <c:crossAx val="162632184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547167088"/>
+        <c:axId val="162632184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547166696"/>
+        <c:crossAx val="162628656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1209,6 +1218,1017 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DC Power</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V, vdc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I, A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="216077376"/>
+        <c:axId val="216073848"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P, W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>18.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.166200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.8596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.6914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.69400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fan, %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.0456568001547684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2803391626921048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.794473229706391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.670166229221348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.375747538872021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.505606827428799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.255722014148983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.507002801120446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.141247090530445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.218685300207039</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.459964290619421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.450397718745311</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.968040907638223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.586693891441215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.822293447293454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.227459783015348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="487719224"/>
+        <c:axId val="487720008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="216077376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throttle, deg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216073848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="216073848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216077376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="487720008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487719224"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="487719224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="487720008"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1345,11 +2365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544643656"/>
-        <c:axId val="544644048"/>
+        <c:axId val="162632576"/>
+        <c:axId val="162631008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544643656"/>
+        <c:axId val="162632576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,12 +2404,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544644048"/>
+        <c:crossAx val="162631008"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544644048"/>
+        <c:axId val="162631008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -1421,7 +2441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544643656"/>
+        <c:crossAx val="162632576"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1443,17 +2463,573 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>538162</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
@@ -1477,16 +3053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120967</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>425767</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,16 +3083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18097</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>362902</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1530,6 +3106,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1862,26 +3468,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="4" sqref="B1:B1048576 D1:D1048576 E1:E1048576 F1:F1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1892,34 +3499,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="L1">
+      <c r="O1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1399999999999999</v>
       </c>
@@ -1930,39 +3546,49 @@
         <v>0.54</v>
       </c>
       <c r="D2" s="1">
+        <v>12.15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2*E2</f>
+        <v>18.954000000000001</v>
+      </c>
+      <c r="G2" s="1">
         <v>8615</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>2.88</v>
       </c>
-      <c r="F2" s="4">
-        <f>1/D2/0.000001</f>
+      <c r="I2" s="4">
+        <f>1/G2/0.000001</f>
         <v>116.07661056297157</v>
       </c>
-      <c r="G2" s="4">
-        <f>F2*60/$L$1</f>
+      <c r="J2" s="4">
+        <f>I2*60/$O$1</f>
         <v>3482.2983168891469</v>
       </c>
-      <c r="H2" s="4">
-        <f>G2/$L$4*100</f>
+      <c r="K2" s="4">
+        <f>J2/$O$4*100</f>
         <v>6.0456568001547684</v>
       </c>
-      <c r="I2" s="2">
+      <c r="L2" s="2">
         <f>B2/179*3.3</f>
         <v>1.1245810055865921</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="3">
         <f>16.345*C2-1.9058*C2*C2-2.14</f>
         <v>6.1305687199999994</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>4800</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>65</v>
       </c>
@@ -1970,39 +3596,49 @@
         <v>0.68</v>
       </c>
       <c r="D3" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F17" si="0">D3*E3</f>
+        <v>23.065999999999999</v>
+      </c>
+      <c r="G3" s="1">
         <v>6290</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F17" si="0">1/D3/0.000001</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I17" si="1">1/G3/0.000001</f>
         <v>158.98251192368841</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G17" si="1">F3*60/$L$1</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J17" si="2">I3*60/$O$1</f>
         <v>4769.4753577106521</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H17" si="2">G3/$L$4*100</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K17" si="3">J3/$O$4*100</f>
         <v>8.2803391626921048</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I17" si="3">B3/179*3.3</f>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L17" si="4">B3/179*3.3</f>
         <v>1.1983240223463687</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J17" si="4">16.345*C3-1.9058*C3*C3-2.14</f>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M17" si="5">16.345*C3-1.9058*C3*C3-2.14</f>
         <v>8.093358079999998</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>70</v>
       </c>
@@ -2010,40 +3646,50 @@
         <v>0.9</v>
       </c>
       <c r="D4" s="1">
+        <v>12.11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>31.970400000000001</v>
+      </c>
+      <c r="G4" s="1">
         <v>4825</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>5.36</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
         <v>207.25388601036269</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" si="1"/>
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
         <v>6217.6165803108806</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="2"/>
+      <c r="K4" s="4">
+        <f t="shared" si="3"/>
         <v>10.794473229706391</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" si="3"/>
+      <c r="L4" s="2">
+        <f t="shared" si="4"/>
         <v>1.2905027932960893</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="4"/>
+      <c r="M4" s="3">
+        <f t="shared" si="5"/>
         <v>11.026802</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="L4">
-        <f>L2*L3</f>
+      <c r="O4">
+        <f>O2*O3</f>
         <v>57600</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>75</v>
       </c>
@@ -2051,45 +3697,55 @@
         <v>1.105</v>
       </c>
       <c r="D5" s="1">
+        <v>12.07</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>44.176200000000001</v>
+      </c>
+      <c r="G5" s="1">
         <v>3810</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>6.7</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
         <v>262.46719160104988</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
         <v>7874.0157480314965</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="2"/>
+      <c r="K5" s="4">
+        <f t="shared" si="3"/>
         <v>13.670166229221348</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="3"/>
+      <c r="L5" s="2">
+        <f t="shared" si="4"/>
         <v>1.3826815642458099</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="4"/>
+      <c r="M5" s="3">
+        <f t="shared" si="5"/>
         <v>13.594195554999995</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>4096</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>3.3</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>77</v>
       </c>
@@ -2097,33 +3753,43 @@
         <v>1.18</v>
       </c>
       <c r="D6" s="1">
+        <v>12.07</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>44.176200000000001</v>
+      </c>
+      <c r="G6" s="1">
         <v>3623</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>7.4</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
         <v>276.01435274634281</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
         <v>8280.4305823902851</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="2"/>
+      <c r="K6" s="4">
+        <f t="shared" si="3"/>
         <v>14.375747538872021</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
         <v>1.4195530726256982</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="4"/>
+      <c r="M6" s="3">
+        <f t="shared" si="5"/>
         <v>14.493464079999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>79</v>
       </c>
@@ -2131,33 +3797,43 @@
         <v>1.26</v>
       </c>
       <c r="D7" s="1">
+        <v>12.03</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.47</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>53.774099999999997</v>
+      </c>
+      <c r="G7" s="1">
         <v>3359</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
         <v>297.70765108663295</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
         <v>8931.229532598989</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="2"/>
+      <c r="K7" s="4">
+        <f t="shared" si="3"/>
         <v>15.505606827428799</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="3"/>
+      <c r="L7" s="2">
+        <f t="shared" si="4"/>
         <v>1.4564245810055865</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" si="4"/>
+      <c r="M7" s="3">
+        <f t="shared" si="5"/>
         <v>15.429051919999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>81</v>
       </c>
@@ -2165,33 +3841,43 @@
         <v>1.32</v>
       </c>
       <c r="D8" s="1">
+        <v>12.03</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.47</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>53.774099999999997</v>
+      </c>
+      <c r="G8" s="1">
         <v>3204</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>8.4</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
         <v>312.10986267166044</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="1"/>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
         <v>9363.2958801498135</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="2"/>
+      <c r="K8" s="4">
+        <f t="shared" si="3"/>
         <v>16.255722014148983</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="3"/>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
         <v>1.4932960893854748</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="4"/>
+      <c r="M8" s="3">
+        <f t="shared" si="5"/>
         <v>16.114734079999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.55</v>
       </c>
@@ -2202,33 +3888,43 @@
         <v>1.44</v>
       </c>
       <c r="D9" s="1">
+        <v>11.98</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>68.166200000000003</v>
+      </c>
+      <c r="G9" s="1">
         <v>2975</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9" s="1">
         <v>9.15</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
         <v>336.1344537815126</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
         <v>10084.033613445377</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="2"/>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
         <v>17.507002801120446</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="3"/>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
         <v>1.5393854748603351</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="4"/>
+      <c r="M9" s="3">
+        <f t="shared" si="5"/>
         <v>17.444933119999995</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>88</v>
       </c>
@@ -2236,33 +3932,43 @@
         <v>1.57</v>
       </c>
       <c r="D10" s="1">
+        <v>11.96</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>77.8596</v>
+      </c>
+      <c r="G10" s="1">
         <v>2721</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10" s="1">
         <v>9.5</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
         <v>367.51194413818456</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
         <v>11025.358324145536</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="2"/>
+      <c r="K10" s="4">
+        <f t="shared" si="3"/>
         <v>19.141247090530445</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="3"/>
+      <c r="L10" s="2">
+        <f t="shared" si="4"/>
         <v>1.6223463687150836</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" si="4"/>
+      <c r="M10" s="3">
+        <f t="shared" si="5"/>
         <v>18.824043579999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>92</v>
       </c>
@@ -2270,33 +3976,43 @@
         <v>1.75</v>
       </c>
       <c r="D11" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>88.417000000000002</v>
+      </c>
+      <c r="G11" s="1">
         <v>2576</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11" s="1">
         <v>9.9</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
         <v>388.19875776397515</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
         <v>11645.962732919255</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="2"/>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
         <v>20.218685300207039</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="3"/>
+      <c r="L11" s="2">
+        <f t="shared" si="4"/>
         <v>1.6960893854748602</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="4"/>
+      <c r="M11" s="3">
+        <f t="shared" si="5"/>
         <v>20.627237499999996</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.79</v>
       </c>
@@ -2307,33 +4023,43 @@
         <v>1.88</v>
       </c>
       <c r="D12" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.49</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>100.6914</v>
+      </c>
+      <c r="G12" s="1">
         <v>2427</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12" s="1">
         <v>10.5</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
         <v>412.03131437989288</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
         <v>12360.939431396786</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="2"/>
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
         <v>21.459964290619421</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="3"/>
+      <c r="L12" s="2">
+        <f t="shared" si="4"/>
         <v>1.7513966480446927</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="4"/>
+      <c r="M12" s="3">
+        <f t="shared" si="5"/>
         <v>21.852740479999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>100</v>
       </c>
@@ -2341,33 +4067,43 @@
         <v>2.04</v>
       </c>
       <c r="D13" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>126.9</v>
+      </c>
+      <c r="G13" s="1">
         <v>2221</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>11.4</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
         <v>450.24763619990995</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
         <v>13507.429085997299</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="2"/>
+      <c r="K13" s="4">
+        <f t="shared" si="3"/>
         <v>23.450397718745311</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="3"/>
+      <c r="L13" s="2">
+        <f t="shared" si="4"/>
         <v>1.8435754189944131</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="4"/>
+      <c r="M13" s="3">
+        <f t="shared" si="5"/>
         <v>23.272622720000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>105</v>
       </c>
@@ -2375,67 +4111,77 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D14" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13.48</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>155.69400000000002</v>
+      </c>
+      <c r="G14" s="1">
         <v>2086</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
         <v>12.4</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
         <v>479.38638542665387</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
         <v>14381.591562799616</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" si="2"/>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
         <v>24.968040907638223</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="3"/>
+      <c r="L14" s="2">
+        <f t="shared" si="4"/>
         <v>1.935754189944134</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" si="4"/>
+      <c r="M14" s="3">
+        <f t="shared" si="5"/>
         <v>24.910257919999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>110</v>
       </c>
       <c r="C15" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D15" s="1">
+      <c r="G15" s="1">
         <v>1959</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15" s="1">
         <v>13.1</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
         <v>510.46452271567131</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
         <v>15313.935681470139</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" si="2"/>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
         <v>26.586693891441215</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="3"/>
+      <c r="L15" s="2">
+        <f t="shared" si="4"/>
         <v>2.0279329608938546</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" si="4"/>
+      <c r="M15" s="3">
+        <f t="shared" si="5"/>
         <v>26.324791579999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.14</v>
       </c>
@@ -2445,64 +4191,64 @@
       <c r="C16" s="1">
         <v>2.68</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16" s="1">
         <v>1872</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>13.8</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
         <v>534.18803418803429</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
         <v>16025.641025641029</v>
       </c>
-      <c r="H16" s="4">
-        <f t="shared" si="2"/>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
         <v>27.822293447293454</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="3"/>
+      <c r="L16" s="2">
+        <f t="shared" si="4"/>
         <v>2.1201117318435756</v>
       </c>
-      <c r="J16" s="3">
-        <f t="shared" si="4"/>
+      <c r="M16" s="3">
+        <f t="shared" si="5"/>
         <v>27.97638208</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>120</v>
       </c>
       <c r="C17" s="1">
         <v>2.68</v>
       </c>
-      <c r="D17" s="1">
+      <c r="G17" s="1">
         <v>1782</v>
       </c>
-      <c r="E17" s="1">
+      <c r="H17" s="1">
         <v>14.4</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
         <v>561.16722783389457</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
         <v>16835.016835016839</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" si="2"/>
+      <c r="K17" s="4">
+        <f t="shared" si="3"/>
         <v>29.227459783015348</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="3"/>
+      <c r="L17" s="2">
+        <f t="shared" si="4"/>
         <v>2.2122905027932958</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" si="4"/>
+      <c r="M17" s="3">
+        <f t="shared" si="5"/>
         <v>27.97638208</v>
       </c>
     </row>
@@ -2516,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -2562,19 +4308,19 @@
         <v>1881</v>
       </c>
       <c r="D2">
-        <f>1/B2*1000000</f>
+        <f t="shared" ref="D2:E7" si="0">1/B2*1000000</f>
         <v>703.72976776917665</v>
       </c>
       <c r="E2">
-        <f>1/C2*1000000</f>
+        <f t="shared" si="0"/>
         <v>531.63211057947899</v>
       </c>
       <c r="F2">
-        <f>D2*60/$M$1</f>
+        <f t="shared" ref="F2:G7" si="1">D2*60/$M$1</f>
         <v>21111.893033075299</v>
       </c>
       <c r="G2">
-        <f>E2*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>15948.96331738437</v>
       </c>
       <c r="L2" t="s">
@@ -2595,19 +4341,19 @@
         <v>2372</v>
       </c>
       <c r="D3">
-        <f>1/B3*1000000</f>
+        <f t="shared" si="0"/>
         <v>580.04640371229698</v>
       </c>
       <c r="E3">
-        <f>1/C3*1000000</f>
+        <f t="shared" si="0"/>
         <v>421.58516020236084</v>
       </c>
       <c r="F3">
-        <f>D3*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>17401.39211136891</v>
       </c>
       <c r="G3">
-        <f>E3*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>12647.554806070824</v>
       </c>
       <c r="L3" t="s">
@@ -2628,19 +4374,19 @@
         <v>4114</v>
       </c>
       <c r="D4">
-        <f>1/B4*1000000</f>
+        <f t="shared" si="0"/>
         <v>389.10505836575879</v>
       </c>
       <c r="E4">
-        <f>1/C4*1000000</f>
+        <f t="shared" si="0"/>
         <v>243.07243558580456</v>
       </c>
       <c r="F4">
-        <f>D4*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>11673.151750972764</v>
       </c>
       <c r="G4">
-        <f>E4*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>7292.1730675741364</v>
       </c>
       <c r="L4" t="s">
@@ -2662,19 +4408,19 @@
         <v>6196</v>
       </c>
       <c r="D5">
-        <f>1/B5*1000000</f>
+        <f t="shared" si="0"/>
         <v>327.653997378768</v>
       </c>
       <c r="E5">
-        <f>1/C5*1000000</f>
+        <f t="shared" si="0"/>
         <v>161.39444803098772</v>
       </c>
       <c r="F5">
-        <f>D5*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>9829.6199213630407</v>
       </c>
       <c r="G5">
-        <f>E5*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>4841.8334409296313</v>
       </c>
     </row>
@@ -2689,19 +4435,19 @@
         <v>3944</v>
       </c>
       <c r="D6">
-        <f>1/B6*1000000</f>
+        <f t="shared" si="0"/>
         <v>406.17384240454913</v>
       </c>
       <c r="E6">
-        <f>1/C6*1000000</f>
+        <f t="shared" si="0"/>
         <v>253.54969574036511</v>
       </c>
       <c r="F6">
-        <f>D6*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>12185.215272136475</v>
       </c>
       <c r="G6">
-        <f>E6*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>7606.4908722109531</v>
       </c>
       <c r="L6" t="s">
@@ -2725,19 +4471,19 @@
         <v>2266</v>
       </c>
       <c r="D7">
-        <f>1/B7*1000000</f>
+        <f t="shared" si="0"/>
         <v>577.70075101097632</v>
       </c>
       <c r="E7">
-        <f>1/C7*1000000</f>
+        <f t="shared" si="0"/>
         <v>441.30626654898504</v>
       </c>
       <c r="F7">
-        <f>D7*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>17331.02253032929</v>
       </c>
       <c r="G7">
-        <f>E7*60/$M$1</f>
+        <f t="shared" si="1"/>
         <v>13239.187996469551</v>
       </c>
       <c r="L7" t="s">

--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -2243,6 +2243,488 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calc PCNF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="200"/>
+            <c:backward val="9"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26646434820647419"/>
+                  <c:y val="1.8101851851851852E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>18.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.166200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.8596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.6914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.69400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.1305687199999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.093358079999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.026802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.594195554999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.493464079999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.429051919999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.114734079999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.444933119999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.824043579999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.627237499999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.852740479999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.272622720000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.910257919999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.324791579999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.97638208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.97638208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485872592"/>
+        <c:axId val="485871808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485872592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ESC Power, W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485871808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485871808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485872592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -2503,7 +2985,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3136,6 +4174,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3471,7 +4539,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="4" sqref="B1:B1048576 D1:D1048576 E1:E1048576 F1:F1048576 K1:K1048576"/>
+      <selection activeCell="M1" activeCellId="1" sqref="F1:F1048576 M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -128,6 +128,24 @@
   <si>
     <t>P, W</t>
   </si>
+  <si>
+    <t>AEMF</t>
+  </si>
+  <si>
+    <t>BEMF</t>
+  </si>
+  <si>
+    <t>CEMF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMDL </t>
+  </si>
+  <si>
+    <t>BMDL</t>
+  </si>
+  <si>
+    <t>CMDL</t>
+  </si>
 </sst>
 </file>
 
@@ -145,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,8 +379,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85116984"/>
-        <c:axId val="162626696"/>
+        <c:axId val="188273240"/>
+        <c:axId val="188275200"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -381,13 +406,13 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:backward val="0.54"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.3960984251968504"/>
-                  <c:y val="2.5614246135899681E-2"/>
+                  <c:x val="-2.1875984251968503E-2"/>
+                  <c:y val="1.8773989956457755E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -454,49 +479,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.0456568001547684</c:v>
+                  <c:v>18.892677500483654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2803391626921048</c:v>
+                  <c:v>25.876059883412829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.794473229706391</c:v>
+                  <c:v>33.732728842832472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.670166229221348</c:v>
+                  <c:v>42.71926946631671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.375747538872021</c:v>
+                  <c:v>44.924211058975075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.505606827428799</c:v>
+                  <c:v>48.455021335714996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.255722014148983</c:v>
+                  <c:v>50.79913129421557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.507002801120446</c:v>
+                  <c:v>54.709383753501392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.141247090530445</c:v>
+                  <c:v>59.816397157907645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.218685300207039</c:v>
+                  <c:v>63.183391563147005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.459964290619421</c:v>
+                  <c:v>67.062388408185697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.450397718745311</c:v>
+                  <c:v>73.2824928710791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.968040907638223</c:v>
+                  <c:v>78.02512783636945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.586693891441215</c:v>
+                  <c:v>83.083418410753794</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.822293447293454</c:v>
+                  <c:v>86.944667022792046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,11 +536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162633360"/>
-        <c:axId val="162627088"/>
+        <c:axId val="188277552"/>
+        <c:axId val="188275592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85116984"/>
+        <c:axId val="188273240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,6 +548,21 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V4, VDC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -530,12 +570,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162626696"/>
+        <c:crossAx val="188275200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162626696"/>
+        <c:axId val="188275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -548,16 +588,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85116984"/>
+        <c:crossAx val="188273240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162627088"/>
+        <c:axId val="188275592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -566,13 +606,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162633360"/>
+        <c:crossAx val="188277552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162633360"/>
+        <c:axId val="188277552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162627088"/>
+        <c:crossAx val="188275592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -741,8 +781,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162627872"/>
-        <c:axId val="162633752"/>
+        <c:axId val="188847256"/>
+        <c:axId val="188846472"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -855,26 +895,45 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162627480"/>
-        <c:axId val="162626304"/>
+        <c:axId val="188849216"/>
+        <c:axId val="188850784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162627872"/>
+        <c:axId val="188847256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>POT, v</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162633752"/>
+        <c:crossAx val="188846472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162633752"/>
+        <c:axId val="188846472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,12 +944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162627872"/>
+        <c:crossAx val="188847256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162626304"/>
+        <c:axId val="188850784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,12 +959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162627480"/>
+        <c:crossAx val="188849216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162627480"/>
+        <c:axId val="188849216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162626304"/>
+        <c:crossAx val="188850784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1067,52 +1126,52 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.0456568001547684</c:v>
+                  <c:v>18.892677500483654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2803391626921048</c:v>
+                  <c:v>25.876059883412829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.794473229706391</c:v>
+                  <c:v>33.732728842832472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.670166229221348</c:v>
+                  <c:v>42.71926946631671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.375747538872021</c:v>
+                  <c:v>44.924211058975075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.505606827428799</c:v>
+                  <c:v>48.455021335714996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.255722014148983</c:v>
+                  <c:v>50.79913129421557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.507002801120446</c:v>
+                  <c:v>54.709383753501392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.141247090530445</c:v>
+                  <c:v>59.816397157907645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.218685300207039</c:v>
+                  <c:v>63.183391563147005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.459964290619421</c:v>
+                  <c:v>67.062388408185697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.450397718745311</c:v>
+                  <c:v>73.2824928710791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.968040907638223</c:v>
+                  <c:v>78.02512783636945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.586693891441215</c:v>
+                  <c:v>83.083418410753794</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.822293447293454</c:v>
+                  <c:v>86.944667022792046</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.227459783015348</c:v>
+                  <c:v>91.335811821922945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,11 +1186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162628656"/>
-        <c:axId val="162632184"/>
+        <c:axId val="188849608"/>
+        <c:axId val="188850000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162628656"/>
+        <c:axId val="188849608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,12 +1219,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162632184"/>
+        <c:crossAx val="188850000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162632184"/>
+        <c:axId val="188850000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162628656"/>
+        <c:crossAx val="188849608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1591,8 +1650,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216077376"/>
-        <c:axId val="216073848"/>
+        <c:axId val="188851568"/>
+        <c:axId val="188852352"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1844,52 +1903,52 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.0456568001547684</c:v>
+                  <c:v>18.892677500483654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2803391626921048</c:v>
+                  <c:v>25.876059883412829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.794473229706391</c:v>
+                  <c:v>33.732728842832472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.670166229221348</c:v>
+                  <c:v>42.71926946631671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.375747538872021</c:v>
+                  <c:v>44.924211058975075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.505606827428799</c:v>
+                  <c:v>48.455021335714996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.255722014148983</c:v>
+                  <c:v>50.79913129421557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.507002801120446</c:v>
+                  <c:v>54.709383753501392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.141247090530445</c:v>
+                  <c:v>59.816397157907645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.218685300207039</c:v>
+                  <c:v>63.183391563147005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.459964290619421</c:v>
+                  <c:v>67.062388408185697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.450397718745311</c:v>
+                  <c:v>73.2824928710791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.968040907638223</c:v>
+                  <c:v>78.02512783636945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.586693891441215</c:v>
+                  <c:v>83.083418410753794</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.822293447293454</c:v>
+                  <c:v>86.944667022792046</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.227459783015348</c:v>
+                  <c:v>91.335811821922945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,11 +1963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="487719224"/>
-        <c:axId val="487720008"/>
+        <c:axId val="188848432"/>
+        <c:axId val="188853136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216077376"/>
+        <c:axId val="188851568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -2022,12 +2081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216073848"/>
+        <c:crossAx val="188852352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216073848"/>
+        <c:axId val="188852352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,12 +2143,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216077376"/>
+        <c:crossAx val="188851568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487720008"/>
+        <c:axId val="188853136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -2133,12 +2192,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487719224"/>
+        <c:crossAx val="188848432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487719224"/>
+        <c:axId val="188848432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2207,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487720008"/>
+        <c:crossAx val="188853136"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2422,52 +2482,52 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.1305687199999994</c:v>
+                  <c:v>19.166063999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.093358079999998</c:v>
+                  <c:v>25.302096000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.026802</c:v>
+                  <c:v>34.472400000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.594195554999995</c:v>
+                  <c:v>42.498190999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.493464079999999</c:v>
+                  <c:v>45.309296000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.429051919999999</c:v>
+                  <c:v>48.233903999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.114734079999998</c:v>
+                  <c:v>50.377296000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.444933119999995</c:v>
+                  <c:v>54.535344000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.824043579999998</c:v>
+                  <c:v>58.846196000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.627237499999996</c:v>
+                  <c:v>64.482500000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.852740479999998</c:v>
+                  <c:v>68.312976000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.272622720000001</c:v>
+                  <c:v>72.750864000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.910257919999999</c:v>
+                  <c:v>77.869104000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.324791579999999</c:v>
+                  <c:v>82.289796000000024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.97638208</c:v>
+                  <c:v>87.450896</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.97638208</c:v>
+                  <c:v>87.450896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,11 +2542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485872592"/>
-        <c:axId val="485871808"/>
+        <c:axId val="188846864"/>
+        <c:axId val="188847648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485872592"/>
+        <c:axId val="188846864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,12 +2659,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485871808"/>
+        <c:crossAx val="188847648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485871808"/>
+        <c:axId val="188847648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,8 +2721,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485872592"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="188846864"/>
+        <c:crossesAt val="10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2725,6 +2785,489 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calc PCNF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="200"/>
+            <c:backward val="10"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8506124234470745E-2"/>
+                  <c:y val="1.3472222222222222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>18.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.166200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.8596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.6914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.69400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>19.166063999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.302096000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.472400000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.498190999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.309296000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.233903999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.377296000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.535344000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.846196000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.482500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.312976000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.750864000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.869104000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.289796000000024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.450896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.450896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="188852744"/>
+        <c:axId val="522184640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="188852744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ESC Power, W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522184640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="522184640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188852744"/>
+        <c:crossesAt val="10"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -2740,7 +3283,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2847,11 +3389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162632576"/>
-        <c:axId val="162631008"/>
+        <c:axId val="517016832"/>
+        <c:axId val="517014088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162632576"/>
+        <c:axId val="517016832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,19 +3421,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162631008"/>
+        <c:crossAx val="517014088"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162631008"/>
+        <c:axId val="517014088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -2916,21 +3457,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162632576"/>
+        <c:crossAx val="517016832"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3025,6 +3564,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4057,20 +4636,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408622</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>115252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>103822</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4092,15 +5187,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>120967</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>111442</xdr:rowOff>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>425767</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4121,16 +5216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>18097</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>391477</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>362902</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>168592</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4151,16 +5246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4181,15 +5276,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4204,6 +5299,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4536,10 +5663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="1" sqref="F1:F1048576 M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4556,7 +5683,7 @@
     <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4603,7 +5730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1399999999999999</v>
       </c>
@@ -4639,15 +5766,15 @@
       </c>
       <c r="K2" s="4">
         <f>J2/$O$4*100</f>
-        <v>6.0456568001547684</v>
+        <v>18.892677500483654</v>
       </c>
       <c r="L2" s="2">
         <f>B2/179*3.3</f>
         <v>1.1245810055865921</v>
       </c>
       <c r="M2" s="3">
-        <f>16.345*C2-1.9058*C2*C2-2.14</f>
-        <v>6.1305687199999994</v>
+        <f>$O$8*C2+$O$7*C2*C2+$O$9</f>
+        <v>19.166063999999999</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
@@ -4656,7 +5783,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>65</v>
       </c>
@@ -4670,7 +5797,7 @@
         <v>1.9</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F17" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F14" si="0">D3*E3</f>
         <v>23.065999999999999</v>
       </c>
       <c r="G3" s="1">
@@ -4689,15 +5816,15 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K17" si="3">J3/$O$4*100</f>
-        <v>8.2803391626921048</v>
+        <v>25.876059883412829</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L17" si="4">B3/179*3.3</f>
         <v>1.1983240223463687</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M17" si="5">16.345*C3-1.9058*C3*C3-2.14</f>
-        <v>8.093358079999998</v>
+        <f t="shared" ref="M3:M17" si="5">$O$8*C3+$O$7*C3*C3+$O$9</f>
+        <v>25.302096000000002</v>
       </c>
       <c r="N3" t="s">
         <v>7</v>
@@ -4706,7 +5833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>70</v>
       </c>
@@ -4739,7 +5866,7 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" si="3"/>
-        <v>10.794473229706391</v>
+        <v>33.732728842832472</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="4"/>
@@ -4747,17 +5874,21 @@
       </c>
       <c r="M4" s="3">
         <f t="shared" si="5"/>
-        <v>11.026802</v>
+        <v>34.472400000000007</v>
       </c>
       <c r="N4" t="s">
         <v>8</v>
       </c>
       <c r="O4">
-        <f>O2*O3</f>
-        <v>57600</v>
+        <f>O2*O3*32/100</f>
+        <v>18432</v>
+      </c>
+      <c r="P4" s="6">
+        <f>100/32</f>
+        <v>3.125</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>75</v>
       </c>
@@ -4790,7 +5921,7 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="3"/>
-        <v>13.670166229221348</v>
+        <v>42.71926946631671</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="4"/>
@@ -4798,7 +5929,7 @@
       </c>
       <c r="M5" s="3">
         <f t="shared" si="5"/>
-        <v>13.594195554999995</v>
+        <v>42.498190999999998</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
@@ -4806,14 +5937,11 @@
       <c r="O5">
         <v>4096</v>
       </c>
-      <c r="P5">
-        <v>3.3</v>
-      </c>
       <c r="Q5">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>77</v>
       </c>
@@ -4846,7 +5974,7 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="3"/>
-        <v>14.375747538872021</v>
+        <v>44.924211058975075</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
@@ -4854,10 +5982,10 @@
       </c>
       <c r="M6" s="3">
         <f t="shared" si="5"/>
-        <v>14.493464079999999</v>
+        <v>45.309296000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>79</v>
       </c>
@@ -4890,7 +6018,7 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" si="3"/>
-        <v>15.505606827428799</v>
+        <v>48.455021335714996</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="4"/>
@@ -4898,10 +6026,16 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" si="5"/>
-        <v>15.429051919999999</v>
+        <v>48.233903999999995</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-5.96</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>81</v>
       </c>
@@ -4934,7 +6068,7 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" si="3"/>
-        <v>16.255722014148983</v>
+        <v>50.79913129421557</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
@@ -4942,10 +6076,16 @@
       </c>
       <c r="M8" s="3">
         <f t="shared" si="5"/>
-        <v>16.114734079999998</v>
+        <v>50.377296000000001</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="6">
+        <v>51.1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.55</v>
       </c>
@@ -4981,7 +6121,7 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="3"/>
-        <v>17.507002801120446</v>
+        <v>54.709383753501392</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="4"/>
@@ -4989,10 +6129,16 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" si="5"/>
-        <v>17.444933119999995</v>
+        <v>54.535344000000009</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-6.69</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>88</v>
       </c>
@@ -5025,7 +6171,7 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>19.141247090530445</v>
+        <v>59.816397157907645</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="4"/>
@@ -5033,10 +6179,10 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="5"/>
-        <v>18.824043579999998</v>
+        <v>58.846196000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>92</v>
       </c>
@@ -5069,7 +6215,7 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="3"/>
-        <v>20.218685300207039</v>
+        <v>63.183391563147005</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="4"/>
@@ -5077,10 +6223,16 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" si="5"/>
-        <v>20.627237499999996</v>
+        <v>64.482500000000002</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="6">
+        <v>-8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.79</v>
       </c>
@@ -5116,7 +6268,7 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="3"/>
-        <v>21.459964290619421</v>
+        <v>67.062388408185697</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
@@ -5124,10 +6276,16 @@
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>21.852740479999998</v>
+        <v>68.312976000000006</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2.7970000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>100</v>
       </c>
@@ -5160,7 +6318,7 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="3"/>
-        <v>23.450397718745311</v>
+        <v>73.2824928710791</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
@@ -5168,10 +6326,16 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="5"/>
-        <v>23.272622720000001</v>
+        <v>72.750864000000007</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="6">
+        <v>-118.6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>105</v>
       </c>
@@ -5204,7 +6368,7 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>24.968040907638223</v>
+        <v>78.02512783636945</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
@@ -5212,10 +6376,10 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="5"/>
-        <v>24.910257919999999</v>
+        <v>77.869104000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>110</v>
       </c>
@@ -5238,7 +6402,7 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="3"/>
-        <v>26.586693891441215</v>
+        <v>83.083418410753794</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="4"/>
@@ -5246,10 +6410,10 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>26.324791579999999</v>
+        <v>82.289796000000024</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.14</v>
       </c>
@@ -5275,7 +6439,7 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="3"/>
-        <v>27.822293447293454</v>
+        <v>86.944667022792046</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="4"/>
@@ -5283,10 +6447,14 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
-        <v>27.97638208</v>
+        <v>87.450896</v>
+      </c>
+      <c r="Y16">
+        <f>1/0.015/2*2*PI()</f>
+        <v>209.43951023931956</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>120</v>
       </c>
@@ -5309,7 +6477,7 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="3"/>
-        <v>29.227459783015348</v>
+        <v>91.335811821922945</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="4"/>
@@ -5317,7 +6485,11 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="5"/>
-        <v>27.97638208</v>
+        <v>87.450896</v>
+      </c>
+      <c r="Y17">
+        <f>145/115</f>
+        <v>1.2608695652173914</v>
       </c>
     </row>
   </sheetData>

--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,15 +14,13 @@
   <sheets>
     <sheet name="Cal" sheetId="1" r:id="rId1"/>
     <sheet name="Coupling" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -60,22 +58,7 @@
     <t>fan, %</t>
   </si>
   <si>
-    <t>Calc POT, v</t>
-  </si>
-  <si>
-    <t>POT scale</t>
-  </si>
-  <si>
-    <t>Calc PCNF</t>
-  </si>
-  <si>
     <t>using 18</t>
-  </si>
-  <si>
-    <t>ESC amps</t>
-  </si>
-  <si>
-    <t>using 120</t>
   </si>
   <si>
     <t>watts</t>
@@ -87,16 +70,7 @@
     <t>volts</t>
   </si>
   <si>
-    <t>using 10</t>
-  </si>
-  <si>
     <t>max amps</t>
-  </si>
-  <si>
-    <t>max rpm</t>
-  </si>
-  <si>
-    <t>kv</t>
   </si>
   <si>
     <t>Num Poles</t>
@@ -120,39 +94,146 @@
     <t>in, microsec</t>
   </si>
   <si>
-    <t>I, A</t>
+    <t>ANF2NG</t>
   </si>
   <si>
-    <t>V, vdc</t>
+    <t>ANG2NF</t>
   </si>
   <si>
-    <t>P, W</t>
+    <t>BNF2NG</t>
   </si>
   <si>
-    <t>AEMF</t>
+    <t>BNG2NF</t>
   </si>
   <si>
-    <t>BEMF</t>
+    <t>max power</t>
   </si>
   <si>
-    <t>CEMF</t>
+    <t>P/10, W/10</t>
   </si>
   <si>
-    <t xml:space="preserve">AMDL </t>
+    <t>Calc fan, rpm</t>
   </si>
   <si>
-    <t>BMDL</t>
+    <t>Throttle, deg</t>
   </si>
   <si>
-    <t>CMDL</t>
+    <t>Calc NG from Nf, rpm</t>
+  </si>
+  <si>
+    <t>Calc Ng from Nf, %</t>
+  </si>
+  <si>
+    <t>Calc Ng from Throttle, rpm</t>
+  </si>
+  <si>
+    <t>AV42NF</t>
+  </si>
+  <si>
+    <t>BV42NF</t>
+  </si>
+  <si>
+    <t>for 100% Ng at</t>
+  </si>
+  <si>
+    <t>ln(throttle)</t>
+  </si>
+  <si>
+    <t>Pot, VDC</t>
+  </si>
+  <si>
+    <t>pcngRef</t>
+  </si>
+  <si>
+    <t>pcnfRef</t>
+  </si>
+  <si>
+    <t>ngRef</t>
+  </si>
+  <si>
+    <t>nfRef</t>
+  </si>
+  <si>
+    <t>throttle</t>
+  </si>
+  <si>
+    <t>pot --&gt; pcnfRef</t>
+  </si>
+  <si>
+    <t>v4 --&gt; nf --&gt; pcnf</t>
+  </si>
+  <si>
+    <t>Charger V, vdc</t>
+  </si>
+  <si>
+    <t>Charger I, A</t>
+  </si>
+  <si>
+    <t>Charger Pwr, W</t>
+  </si>
+  <si>
+    <t>using 13</t>
+  </si>
+  <si>
+    <t>using 156</t>
+  </si>
+  <si>
+    <t>Recommended ESC amps</t>
+  </si>
+  <si>
+    <t>magnetic poles</t>
+  </si>
+  <si>
+    <t>AP2PNG</t>
+  </si>
+  <si>
+    <t>BP2PNG</t>
+  </si>
+  <si>
+    <t>AP2NG</t>
+  </si>
+  <si>
+    <t>BP2NG</t>
+  </si>
+  <si>
+    <t>AP2PNF</t>
+  </si>
+  <si>
+    <t>AP2NF</t>
+  </si>
+  <si>
+    <t>BP2NF</t>
+  </si>
+  <si>
+    <t>BP2PNF</t>
+  </si>
+  <si>
+    <t>CV42NF</t>
+  </si>
+  <si>
+    <t>ALT2NG</t>
+  </si>
+  <si>
+    <t>BLT2NG</t>
+  </si>
+  <si>
+    <t>POTMIN</t>
+  </si>
+  <si>
+    <t>POTMAX</t>
+  </si>
+  <si>
+    <t>open loop: pot --&gt;  pcnfRef --&gt; nfRef --&gt; ngRef -ln-&gt; throttle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -163,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,7 +253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -206,7 +296,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,1058 +349,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cal!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fan,RPM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cal!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cal!$J$2:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3482.2983168891469</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4769.4753577106521</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6217.6165803108806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7874.0157480314965</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8280.4305823902851</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8931.229532598989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9363.2958801498135</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10084.033613445377</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11025.358324145536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11645.962732919255</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12360.939431396786</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13507.429085997299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14381.591562799616</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15313.935681470139</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16025.641025641029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="188273240"/>
-        <c:axId val="188275200"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cal!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fan, %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:backward val="0.54"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.1875984251968503E-2"/>
-                  <c:y val="1.8773989956457755E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cal!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cal!$K$2:$K$16</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>18.892677500483654</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.876059883412829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.732728842832472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.71926946631671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.924211058975075</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48.455021335714996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50.79913129421557</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.709383753501392</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.816397157907645</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.183391563147005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.062388408185697</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>73.2824928710791</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.02512783636945</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83.083418410753794</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.944667022792046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="188277552"/>
-        <c:axId val="188275592"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="188273240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>V4, VDC</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188275200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188275200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188273240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5000"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188275592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188277552"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188277552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188275592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cal!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>throttleFlt, deg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12976487314085738"/>
-                  <c:y val="0.19388451443569554"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cal!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.1399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cal!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="188847256"/>
-        <c:axId val="188846472"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cal!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fan,RPM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cal!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.1399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cal!$J$2:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>3482.2983168891469</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4769.4753577106521</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6217.6165803108806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7874.0157480314965</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8280.4305823902851</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8931.229532598989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9363.2958801498135</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10084.033613445377</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11025.358324145536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11645.962732919255</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12360.939431396786</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13507.429085997299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14381.591562799616</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15313.935681470139</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16025.641025641029</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16835.016835016839</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="188849216"/>
-        <c:axId val="188850784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="188847256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>POT, v</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188846472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188846472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188847256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188850784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188849216"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188849216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188850784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Microturbine Control</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cal!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fan, %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cal!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cal!$K$2:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>18.892677500483654</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.876059883412829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.732728842832472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.71926946631671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.924211058975075</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48.455021335714996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50.79913129421557</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.709383753501392</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.816397157907645</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.183391563147005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.062388408185697</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>73.2824928710791</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.02512783636945</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83.083418410753794</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.944667022792046</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>91.335811821922945</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="188849608"/>
-        <c:axId val="188850000"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="188849608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Throttle, deg</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188850000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188850000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Fan Speed, %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188849608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1348,7 +420,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.615492557213652E-2"/>
+          <c:y val="3.4574024703604954E-2"/>
+          <c:w val="0.81758949758278443"/>
+          <c:h val="0.82277746777715777"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1361,7 +443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>V, vdc</c:v>
+                  <c:v>Charger V, vdc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1506,7 +588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I, A</c:v>
+                  <c:v>Charger I, A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1642,30 +724,16 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="188851568"/>
-        <c:axId val="188852352"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal!$F$1</c:f>
+              <c:f>Cal!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P, W</c:v>
+                  <c:v>P/10, W/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1753,64 +821,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$F$2:$F$17</c:f>
+              <c:f>Cal!$I$2:$I$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>18.954000000000001</c:v>
+                  <c:v>1.8954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.065999999999999</c:v>
+                  <c:v>2.3066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.970400000000001</c:v>
+                  <c:v>3.1970400000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.176200000000001</c:v>
+                  <c:v>4.4176200000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.176200000000001</c:v>
+                  <c:v>4.4176200000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.774099999999997</c:v>
+                  <c:v>5.3774099999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.774099999999997</c:v>
+                  <c:v>5.3774099999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.166200000000003</c:v>
+                  <c:v>6.8166200000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.8596</c:v>
+                  <c:v>7.7859600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88.417000000000002</c:v>
+                  <c:v>8.8416999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.6914</c:v>
+                  <c:v>10.069140000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.9</c:v>
+                  <c:v>12.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>155.69400000000002</c:v>
+                  <c:v>15.569400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209083352"/>
+        <c:axId val="209081784"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal!$K$1</c:f>
+              <c:f>Cal!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fan, %</c:v>
+                  <c:v>fan,RPM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1841,10 +923,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Cal!$B$2:$B$17</c:f>
+              <c:f>Cal!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -1886,69 +968,193 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$K$2:$K$17</c:f>
+              <c:f>Cal!$M$2:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>18.892677500483654</c:v>
+                  <c:v>3482.2983168891469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.876059883412829</c:v>
+                  <c:v>4769.4753577106521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.732728842832472</c:v>
+                  <c:v>6217.6165803108806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.71926946631671</c:v>
+                  <c:v>7874.0157480314965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.924211058975075</c:v>
+                  <c:v>8280.4305823902851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.455021335714996</c:v>
+                  <c:v>8931.229532598989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.79913129421557</c:v>
+                  <c:v>9363.2958801498135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.709383753501392</c:v>
+                  <c:v>10084.033613445377</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.816397157907645</c:v>
+                  <c:v>11025.358324145536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.183391563147005</c:v>
+                  <c:v>11645.962732919255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.062388408185697</c:v>
+                  <c:v>12360.939431396786</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.2824928710791</c:v>
+                  <c:v>13507.429085997299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.02512783636945</c:v>
+                  <c:v>14381.591562799616</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.083418410753794</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.944667022792046</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>91.335811821922945</c:v>
+                  <c:v>15313.935681470139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calc NG from Nf, rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$O$2:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8093.0612209593774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9389.4616509813295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10847.979666897205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12516.247919996655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12925.5749584076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13581.037270235298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14016.199630189618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14742.101878089474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15690.171740307596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16315.223148849102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17035.323080689384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18190.028015677373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19070.454386638979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,14 +1169,1418 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188848432"/>
-        <c:axId val="188853136"/>
+        <c:axId val="209080216"/>
+        <c:axId val="209082960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188851568"/>
+        <c:axId val="209083352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="60"/>
+          <c:max val="115"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throttle, deg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36940485680852947"/>
+              <c:y val="0.92960629921259841"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209081784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209081784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209083352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209082960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209080216"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209080216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="209082960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50660177246938276"/>
+          <c:y val="0.61979002624671919"/>
+          <c:w val="0.31112525232747329"/>
+          <c:h val="0.23669145523476232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Determination of 100% Ng</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10300723022829693"/>
+          <c:y val="0.19624338624338625"/>
+          <c:w val="0.8045040360520973"/>
+          <c:h val="0.56881848102320542"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calc Ng from Nf, %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="60"/>
+            <c:backward val="15"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>18.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.166200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.8596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.6914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.69400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>38.638747148677588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.828158923956003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.79156959022103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.756391979150706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.71064433267518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.840021689491451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.917619762190014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.383298897128569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.909674107371345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.893860519678867</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.331837624819116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.844751810959693</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.048176325099291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209080608"/>
+        <c:axId val="209084528"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throttle, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="60"/>
+            <c:backward val="15"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.774099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.166200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.8596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.6914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.69400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209077864"/>
+        <c:axId val="209077472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="209080608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="216"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power, W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209084528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209084528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pcng, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209080608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209077472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209077864"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="209077864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="209077472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3428189843014906"/>
+          <c:y val="0.52735366412531759"/>
+          <c:w val="0.56055563809240838"/>
+          <c:h val="0.16534766487522393"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ESC Calibration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cal!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calc NG from Nf, rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="10"/>
+            <c:backward val="50"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23671041119860023"/>
+                  <c:y val="2.736111111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cal!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cal!$O$2:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8093.0612209593774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9389.4616509813295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10847.979666897205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12516.247919996655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12925.5749584076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13581.037270235298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14016.199630189618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14742.101878089474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15690.171740307596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16315.223148849102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17035.323080689384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18190.028015677373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19070.454386638979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="209078648"/>
+        <c:axId val="209079824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="209078648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="115"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2081,14 +2691,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188852352"/>
+        <c:crossAx val="209079824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188852352"/>
+        <c:axId val="209079824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20945"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2106,7 +2718,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ng,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> rpm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2143,71 +2816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188851568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188853136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="160"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="188848432"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="188848432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188853136"/>
+        <c:crossAx val="209078648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2219,38 +2828,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2288,7 +2865,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2303,6 +2880,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F2V Circuit Calibration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2348,13 +2950,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Calc PCNF</c:v>
+                  <c:v>fan,RPM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2385,16 +2987,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="200"/>
-            <c:backward val="9"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:backward val="0.54"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.26646434820647419"/>
-                  <c:y val="1.8101851851851852E-2"/>
+                  <c:x val="0.31613008900203265"/>
+                  <c:y val="0.24578598484848485"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2429,105 +3032,114 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Cal!$F$2:$F$17</c:f>
+              <c:f>Cal!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>18.954000000000001</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.065999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.970400000000001</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.176200000000001</c:v>
+                  <c:v>1.105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.176200000000001</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.774099999999997</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.774099999999997</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.166200000000003</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.8596</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88.417000000000002</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.6914</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.9</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>155.69400000000002</c:v>
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$M$2:$M$17</c:f>
+              <c:f>Cal!$M$2:$M$20</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>19.166063999999999</c:v>
+                  <c:v>3482.2983168891469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.302096000000002</c:v>
+                  <c:v>4769.4753577106521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.472400000000007</c:v>
+                  <c:v>6217.6165803108806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.498190999999998</c:v>
+                  <c:v>7874.0157480314965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.309296000000003</c:v>
+                  <c:v>8280.4305823902851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.233903999999995</c:v>
+                  <c:v>8931.229532598989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.377296000000001</c:v>
+                  <c:v>9363.2958801498135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.535344000000009</c:v>
+                  <c:v>10084.033613445377</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.846196000000006</c:v>
+                  <c:v>11025.358324145536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.482500000000002</c:v>
+                  <c:v>11645.962732919255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.312976000000006</c:v>
+                  <c:v>12360.939431396786</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.750864000000007</c:v>
+                  <c:v>13507.429085997299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77.869104000000007</c:v>
+                  <c:v>14381.591562799616</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82.289796000000024</c:v>
+                  <c:v>15313.935681470139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.450896</c:v>
+                  <c:v>16025.641025641029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87.450896</c:v>
+                  <c:v>16835.016835016839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,13 +3154,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188846864"/>
-        <c:axId val="188847648"/>
+        <c:axId val="205959624"/>
+        <c:axId val="205961584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188846864"/>
+        <c:axId val="205959624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2587,8 +3200,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>ESC Power, W</a:t>
+                  <a:t>v4,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> VDC</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2659,14 +3277,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188847648"/>
+        <c:crossAx val="205961584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188847648"/>
+        <c:axId val="205961584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16194"/>
+          <c:min val="-5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2684,7 +3304,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fan Module</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Speed, rpm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2721,8 +3402,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188846864"/>
-        <c:crossesAt val="10"/>
+        <c:crossAx val="205959624"/>
+        <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2770,6 +3451,238 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>50mm EDF Coupling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coupling!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fan, rpm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:backward val="10000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0166596396868627E-2"/>
+                  <c:y val="-2.0810348699273153E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Coupling!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21111.893033075299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17401.39211136891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11673.151750972764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9829.6199213630407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12185.215272136475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17331.02253032929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Coupling!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15948.96331738437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12647.554806070824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7292.1730675741364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4841.8334409296313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7606.4908722109531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13239.187996469551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="205956880"/>
+        <c:axId val="205961976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="205956880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20945"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Generator Speed, rpm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="205961976"/>
+        <c:crossesAt val="-5000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="205961976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16194"/>
+          <c:min val="-5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fan Module Speed, rpm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="205956880"/>
+        <c:crossesAt val="-5000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -2785,7 +3698,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>50mm EDF Coupling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42314089982205183"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2799,7 +3744,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2826,17 +3771,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal!$M$1</c:f>
+              <c:f>Coupling!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Calc PCNF</c:v>
+                  <c:v>gg, rpm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2867,18 +3812,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="200"/>
-            <c:backward val="10"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.8506124234470745E-2"/>
-                  <c:y val="1.3472222222222222E-2"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2911,105 +3849,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Cal!$F$2:$F$17</c:f>
+              <c:f>Coupling!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.954000000000001</c:v>
+                  <c:v>15948.96331738437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.065999999999999</c:v>
+                  <c:v>12647.554806070824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.970400000000001</c:v>
+                  <c:v>7292.1730675741364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.176200000000001</c:v>
+                  <c:v>4841.8334409296313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.176200000000001</c:v>
+                  <c:v>7606.4908722109531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.774099999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.774099999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68.166200000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>77.8596</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>88.417000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100.6914</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>126.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>155.69400000000002</c:v>
+                  <c:v>13239.187996469551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal!$M$2:$M$17</c:f>
+              <c:f>Coupling!$H$2:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.166063999999999</c:v>
+                  <c:v>21111.893033075299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.302096000000002</c:v>
+                  <c:v>17401.39211136891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.472400000000007</c:v>
+                  <c:v>11673.151750972764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.498190999999998</c:v>
+                  <c:v>9829.6199213630407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.309296000000003</c:v>
+                  <c:v>12185.215272136475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.233903999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50.377296000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.535344000000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.846196000000006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64.482500000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68.312976000000006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72.750864000000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>77.869104000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82.289796000000024</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>87.450896</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>87.450896</c:v>
+                  <c:v>17331.02253032929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,14 +3911,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188852744"/>
-        <c:axId val="522184640"/>
+        <c:axId val="205960016"/>
+        <c:axId val="205963544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188852744"/>
+        <c:axId val="205960016"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="16194"/>
+          <c:min val="-5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3056,7 +3944,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3069,9 +3957,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ESC Power, W</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="1"/>
+                  <a:t>Fan Module </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                  <a:t>Speed, rpm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3089,7 +3982,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3142,14 +4035,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522184640"/>
+        <c:crossAx val="205963544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="522184640"/>
+        <c:axId val="205963544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3167,7 +4061,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Gas Generator Speed, rpm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3204,8 +4154,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188852744"/>
-        <c:crossesAt val="10"/>
+        <c:crossAx val="205960016"/>
+        <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3245,237 +4195,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>50mm EDF Coupling</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Coupling!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fan, rpm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:backward val="10000"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.23072747482255712"/>
-                  <c:y val="9.4504602437921553E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Coupling!$F$2:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21111.893033075299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17401.39211136891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11673.151750972764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9829.6199213630407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12185.215272136475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17331.02253032929</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Coupling!$G$2:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>15948.96331738437</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12647.554806070824</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7292.1730675741364</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4841.8334409296313</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7606.4908722109531</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13239.187996469551</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="517016832"/>
-        <c:axId val="517014088"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="517016832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Gas</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Generator Speed, rpm</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517014088"/>
-        <c:crossesAt val="-5000"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="517014088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="25000"/>
-          <c:min val="-5000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Fan Module Speed, rpm</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517016832"/>
-        <c:crossesAt val="-5000"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3604,6 +4323,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5152,24 +5951,1056 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>408622</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>115252</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>103822</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>8572</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5186,20 +7017,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5216,20 +7047,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>391477</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84772</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5246,20 +7077,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5274,68 +7105,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5344,15 +7113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5368,6 +7137,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5663,833 +7462,1353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="5.44140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="5.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="4.5546875" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" customWidth="1"/>
+    <col min="26" max="26" width="7.5546875" customWidth="1"/>
+    <col min="27" max="27" width="7.44140625" customWidth="1"/>
+    <col min="28" max="28" width="7.109375" customWidth="1"/>
+    <col min="29" max="29" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="S1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="6">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1">
-        <v>2</v>
+      <c r="X1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>61</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>0.54</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>12.15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
         <v>1.56</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
+        <v>8615</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2.88</v>
+      </c>
+      <c r="H2" s="2">
         <f>D2*E2</f>
         <v>18.954000000000001</v>
       </c>
-      <c r="G2" s="1">
-        <v>8615</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="I2" s="4">
-        <f>1/G2/0.000001</f>
+      <c r="I2" s="2">
+        <f>H2/10</f>
+        <v>1.8954</v>
+      </c>
+      <c r="J2" s="1">
+        <f>B2</f>
+        <v>61</v>
+      </c>
+      <c r="K2" s="1">
+        <f>LN(J2)</f>
+        <v>4.1108738641733114</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L17" si="0">1/F2/0.000001</f>
         <v>116.07661056297157</v>
       </c>
-      <c r="J2" s="4">
-        <f>I2*60/$O$1</f>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M17" si="1">L2*60/$U$1</f>
         <v>3482.2983168891469</v>
       </c>
-      <c r="K2" s="4">
-        <f>J2/$O$4*100</f>
-        <v>18.892677500483654</v>
-      </c>
-      <c r="L2" s="2">
-        <f>B2/179*3.3</f>
-        <v>1.1245810055865921</v>
-      </c>
-      <c r="M2" s="3">
-        <f>$O$8*C2+$O$7*C2*C2+$O$9</f>
-        <v>19.166063999999999</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3">
+        <f t="shared" ref="N2:N15" si="2">M2/$U$4*100</f>
+        <v>16.625556200425613</v>
+      </c>
+      <c r="O2" s="3">
+        <f>M2*Coupling!$J$8+Coupling!$J$9</f>
+        <v>8093.0612209593774</v>
+      </c>
+      <c r="P2" s="3">
+        <f>J2</f>
+        <v>61</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" ref="Q2:Q14" si="3">O2/$U$4*100</f>
+        <v>38.638747148677588</v>
+      </c>
+      <c r="R2" s="3">
+        <f>$U$10*LN(B2)+$U$11</f>
+        <v>8196.636802490626</v>
+      </c>
+      <c r="S2" s="3">
+        <f>C2*C2*$U$7+C2*$U$8+$U$9</f>
+        <v>4005.3848106256592</v>
+      </c>
+      <c r="T2" t="s">
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="U2" s="6">
         <v>4800</v>
       </c>
+      <c r="W2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>Y2*$U$4/100</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>EXP((Z2-$U$11)/$U$10)</f>
+        <v>40.65722380177391</v>
+      </c>
+      <c r="AB2">
+        <v>-5000</v>
+      </c>
+      <c r="AC2">
+        <f>AB2/$U$4*100</f>
+        <v>-23.871527777777779</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
+    <row r="3" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10">
         <v>65</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>0.68</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>12.14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>1.9</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F14" si="0">D3*E3</f>
+      <c r="F3" s="10">
+        <v>6290</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H14" si="4">D3*E3</f>
         <v>23.065999999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>6290</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I17" si="1">1/G3/0.000001</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I14" si="5">H3/10</f>
+        <v>2.3066</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J17" si="6">B3</f>
+        <v>65</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K17" si="7">LN(J3)</f>
+        <v>4.1743872698956368</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
         <v>158.98251192368841</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J17" si="2">I3*60/$O$1</f>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
         <v>4769.4753577106521</v>
       </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K17" si="3">J3/$O$4*100</f>
-        <v>25.876059883412829</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L17" si="4">B3/179*3.3</f>
-        <v>1.1983240223463687</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M17" si="5">$O$8*C3+$O$7*C3*C3+$O$9</f>
-        <v>25.302096000000002</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3">
+        <f t="shared" si="2"/>
+        <v>22.770932697403286</v>
+      </c>
+      <c r="O3" s="3">
+        <f>M3*Coupling!$J$8+Coupling!$J$9</f>
+        <v>9389.4616509813295</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P14" si="8">J3</f>
+        <v>65</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="3"/>
+        <v>44.828158923956003</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R14" si="9">$U$10*LN(B3)+$U$11</f>
+        <v>9479.8503504825057</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S17" si="10">C3*C3*$U$7+C3*$U$8+$U$9</f>
+        <v>4987.9393693866259</v>
+      </c>
+      <c r="T3" t="s">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="U3" s="6">
         <v>12</v>
       </c>
+      <c r="W3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+      <c r="Z3">
+        <f>Y3*$U$4/100</f>
+        <v>20945.454545454544</v>
+      </c>
+      <c r="AA3">
+        <f>EXP((Z3-$U$11)/$U$10)</f>
+        <v>114.65000595374373</v>
+      </c>
+      <c r="AB3">
+        <f>Z3*Coupling!$C$8+Coupling!$C$9</f>
+        <v>16194.279022996247</v>
+      </c>
+      <c r="AC3">
+        <f>AB3/$U$4*100</f>
+        <v>77.316436307707775</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+    <row r="4" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10">
         <v>70</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>0.9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>12.11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>2.64</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
+        <v>4825</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5.36</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="4"/>
+        <v>31.970400000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1970400000000003</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="7"/>
+        <v>4.2484952420493594</v>
+      </c>
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>31.970400000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4825</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.36</v>
-      </c>
-      <c r="I4" s="4">
+        <v>207.25388601036269</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="1"/>
-        <v>207.25388601036269</v>
-      </c>
-      <c r="J4" s="4">
+        <v>6217.6165803108806</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" si="2"/>
-        <v>6217.6165803108806</v>
-      </c>
-      <c r="K4" s="4">
+        <v>29.684801381692576</v>
+      </c>
+      <c r="O4" s="3">
+        <f>M4*Coupling!$J$8+Coupling!$J$9</f>
+        <v>10847.979666897205</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="Q4" s="3">
         <f t="shared" si="3"/>
-        <v>33.732728842832472</v>
-      </c>
-      <c r="L4" s="2">
+        <v>51.79156959022103</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="9"/>
+        <v>10977.114633516147</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="10"/>
+        <v>6485.4664870301367</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="13">
+        <f>U2*U3/V4</f>
+        <v>20945.454545454544</v>
+      </c>
+      <c r="V4" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="14">
+        <f>INDEX(LINEST(Y$2:Y$3,$X$2:$X$3),1)</f>
+        <v>20</v>
+      </c>
+      <c r="Z4" s="14">
+        <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),1)</f>
+        <v>4189.0909090909072</v>
+      </c>
+      <c r="AB4" s="14">
+        <f t="shared" ref="AB4:AC4" si="11">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),1)</f>
+        <v>4238.8558045992495</v>
+      </c>
+      <c r="AC4" s="14">
+        <f t="shared" si="11"/>
+        <v>20.237592817097106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10">
+        <v>75</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.105</v>
+      </c>
+      <c r="D5" s="10">
+        <v>12.07</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3.66</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3810</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="4"/>
-        <v>1.2905027932960893</v>
-      </c>
-      <c r="M4" s="3">
+        <v>44.176200000000001</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="5"/>
-        <v>34.472400000000007</v>
-      </c>
-      <c r="N4" t="s">
+        <v>4.4176200000000003</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3174881135363101</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>262.46719160104988</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>7874.0157480314965</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>37.592957130358712</v>
+      </c>
+      <c r="O5" s="3">
+        <f>M5*Coupling!$J$8+Coupling!$J$9</f>
+        <v>12516.247919996655</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>59.756391979150706</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="9"/>
+        <v>12371.034332830881</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="10"/>
+        <v>7829.7506403399002</v>
+      </c>
+      <c r="V5">
+        <f>Coupling!J5</f>
+        <v>216</v>
+      </c>
+      <c r="W5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="14">
+        <f>INDEX(LINEST(Y$2:Y$3,$X$2:$X$3),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),2)</f>
+        <v>3.637978807091713E-12</v>
+      </c>
+      <c r="AB5" s="14">
+        <f t="shared" ref="AB5:AC5" si="12">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),2)</f>
+        <v>-5000.0000000000009</v>
+      </c>
+      <c r="AC5" s="14">
+        <f t="shared" si="12"/>
+        <v>-23.871527777777768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10">
+        <v>77</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.18</v>
+      </c>
+      <c r="D6" s="10">
+        <v>12.07</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3.66</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3623</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>44.176200000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>4.4176200000000003</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3438054218536841</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>276.01435274634281</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>8280.4305823902851</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>39.533305731898068</v>
+      </c>
+      <c r="O6" s="3">
+        <f>M6*Coupling!$J$8+Coupling!$J$9</f>
+        <v>12925.5749584076</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>61.71064433267518</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="9"/>
+        <v>12902.744547319715</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="10"/>
+        <v>8309.2357673476217</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10">
+        <v>79</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.26</v>
+      </c>
+      <c r="D7" s="10">
+        <v>12.03</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4.47</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3359</v>
+      </c>
+      <c r="G7" s="10">
         <v>8</v>
       </c>
-      <c r="O4">
-        <f>O2*O3*32/100</f>
-        <v>18432</v>
-      </c>
-      <c r="P4" s="6">
-        <f>100/32</f>
-        <v>3.125</v>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>53.774099999999997</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>5.3774099999999994</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3694478524670215</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>297.70765108663295</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>8931.229532598989</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>42.640418775429204</v>
+      </c>
+      <c r="O7" s="3">
+        <f>M7*Coupling!$J$8+Coupling!$J$9</f>
+        <v>13581.037270235298</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>64.840021689491451</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="9"/>
+        <v>13420.819652760169</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="10"/>
+        <v>8813.4082722245112</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="5">
+        <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),1)</f>
+        <v>-586.95945682909951</v>
+      </c>
+      <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>75</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.105</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12.07</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.66</v>
-      </c>
-      <c r="F5" s="1">
+    <row r="8" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10">
+        <v>81</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.32</v>
+      </c>
+      <c r="D8" s="10">
+        <v>12.03</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.47</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3204</v>
+      </c>
+      <c r="G8" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>53.774099999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>5.3774099999999994</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3944491546724391</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="0"/>
-        <v>44.176200000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3810</v>
-      </c>
-      <c r="H5" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="I5" s="4">
+        <v>312.10986267166044</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="1"/>
-        <v>262.46719160104988</v>
-      </c>
-      <c r="J5" s="4">
+        <v>9363.2958801498135</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="2"/>
-        <v>7874.0157480314965</v>
-      </c>
-      <c r="K5" s="4">
+        <v>44.703235538909702</v>
+      </c>
+      <c r="O8" s="3">
+        <f>M8*Coupling!$J$8+Coupling!$J$9</f>
+        <v>14016.199630189618</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>42.71926946631671</v>
-      </c>
-      <c r="L5" s="2">
+        <v>66.917619762190014</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="9"/>
+        <v>13925.941513925834</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="10"/>
+        <v>9186.6071914448148</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="5">
+        <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),2)</f>
+        <v>7734.3373856241196</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="B9" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.44</v>
+      </c>
+      <c r="D9" s="10">
+        <v>11.98</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5.69</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2975</v>
+      </c>
+      <c r="G9" s="10">
+        <v>9.15</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="4"/>
-        <v>1.3826815642458099</v>
-      </c>
-      <c r="M5" s="3">
+        <v>68.166200000000003</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="5"/>
-        <v>42.498190999999998</v>
-      </c>
-      <c r="N5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>4096</v>
-      </c>
-      <c r="Q5">
-        <v>179</v>
+        <v>6.8166200000000003</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="6"/>
+        <v>83.5</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="7"/>
+        <v>4.42484663185681</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>336.1344537815126</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>10084.033613445377</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>48.14425770308123</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9*Coupling!$J$8+Coupling!$J$9</f>
+        <v>14742.101878089474</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="8"/>
+        <v>83.5</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="3"/>
+        <v>70.383298897128569</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="9"/>
+        <v>14540.08673420093</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="10"/>
+        <v>9920.3267056179102</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="5">
+        <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),3)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12.07</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.66</v>
-      </c>
-      <c r="F6" s="1">
+    <row r="10" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="D10" s="10">
+        <v>11.96</v>
+      </c>
+      <c r="E10" s="10">
+        <v>6.51</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2721</v>
+      </c>
+      <c r="G10" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>77.8596</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>7.7859600000000002</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="7"/>
+        <v>4.4773368144782069</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>44.176200000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3623</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="I6" s="4">
+        <v>367.51194413818456</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
-        <v>276.01435274634281</v>
-      </c>
-      <c r="J6" s="4">
+        <v>11025.358324145536</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="2"/>
-        <v>8280.4305823902851</v>
-      </c>
-      <c r="K6" s="4">
+        <v>52.638429498958729</v>
+      </c>
+      <c r="O10" s="3">
+        <f>M10*Coupling!$J$8+Coupling!$J$9</f>
+        <v>15690.171740307596</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>44.924211058975075</v>
-      </c>
-      <c r="L6" s="2">
+        <v>74.909674107371345</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="9"/>
+        <v>15600.589044072636</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="10"/>
+        <v>10696.113330291821</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="5">
+        <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),1)</f>
+        <v>20203.822065564778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10">
+        <v>92</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="D11" s="10">
+        <v>11.9</v>
+      </c>
+      <c r="E11" s="10">
+        <v>7.43</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2576</v>
+      </c>
+      <c r="G11" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="4"/>
-        <v>1.4195530726256982</v>
-      </c>
-      <c r="M6" s="3">
+        <v>88.417000000000002</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="5"/>
-        <v>45.309296000000003</v>
+        <v>8.8416999999999994</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="7"/>
+        <v>4.5217885770490405</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>388.19875776397515</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>11645.962732919255</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>55.601384575569369</v>
+      </c>
+      <c r="O11" s="3">
+        <f>M11*Coupling!$J$8+Coupling!$J$9</f>
+        <v>16315.223148849102</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="3"/>
+        <v>77.893860519678867</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="9"/>
+        <v>16498.684545554497</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="10"/>
+        <v>11737.527088303092</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="14">
+        <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),2)</f>
+        <v>-74858.727283247674</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.26</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12.03</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.47</v>
-      </c>
-      <c r="F7" s="1">
+    <row r="12" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="B12" s="10">
+        <v>95</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.88</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11.86</v>
+      </c>
+      <c r="E12" s="10">
+        <v>8.49</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2427</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>100.6914</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>10.069140000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="7"/>
+        <v>4.5538768916005408</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="0"/>
-        <v>53.774099999999997</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3359</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4">
+        <v>412.03131437989288</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="1"/>
-        <v>297.70765108663295</v>
-      </c>
-      <c r="J7" s="4">
+        <v>12360.939431396786</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" si="2"/>
-        <v>8931.229532598989</v>
-      </c>
-      <c r="K7" s="4">
+        <v>59.014901799203415</v>
+      </c>
+      <c r="O12" s="3">
+        <f>M12*Coupling!$J$8+Coupling!$J$9</f>
+        <v>17035.323080689384</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="Q12" s="3">
         <f t="shared" si="3"/>
-        <v>48.455021335714996</v>
-      </c>
-      <c r="L7" s="2">
+        <v>81.331837624819116</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="9"/>
+        <v>17146.991143136882</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="10"/>
+        <v>12466.004780756575</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10">
+        <v>100</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.04</v>
+      </c>
+      <c r="D13" s="10">
+        <v>11.75</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2221</v>
+      </c>
+      <c r="G13" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="4"/>
-        <v>1.4564245810055865</v>
-      </c>
-      <c r="M7" s="3">
+        <v>126.9</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>48.233903999999995</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="6">
-        <v>-5.96</v>
-      </c>
+        <v>12.690000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>450.24763619990995</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>13507.429085997299</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>64.48859372654961</v>
+      </c>
+      <c r="O13" s="3">
+        <f>M13*Coupling!$J$8+Coupling!$J$9</f>
+        <v>18190.028015677373</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>86.844751810959693</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="9"/>
+        <v>18183.311736099597</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="10"/>
+        <v>13335.357791133223</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>81</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.32</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12.03</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.47</v>
-      </c>
-      <c r="F8" s="1">
+    <row r="14" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D14" s="10">
+        <v>11.55</v>
+      </c>
+      <c r="E14" s="10">
+        <v>13.48</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2086</v>
+      </c>
+      <c r="G14" s="10">
+        <v>12.4</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>155.69400000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>15.569400000000002</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6539603501575231</v>
+      </c>
+      <c r="L14" s="3">
         <f t="shared" si="0"/>
-        <v>53.774099999999997</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3204</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="I8" s="4">
+        <v>479.38638542665387</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>312.10986267166044</v>
-      </c>
-      <c r="J8" s="4">
+        <v>14381.591562799616</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="2"/>
-        <v>9363.2958801498135</v>
-      </c>
-      <c r="K8" s="4">
+        <v>68.662112496005108</v>
+      </c>
+      <c r="O14" s="3">
+        <f>M14*Coupling!$J$8+Coupling!$J$9</f>
+        <v>19070.454386638979</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>50.79913129421557</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4932960893854748</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="5"/>
-        <v>50.377296000000001</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="6">
-        <v>51.1</v>
-      </c>
+        <v>91.048176325099291</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="9"/>
+        <v>19169.059531528474</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="10"/>
+        <v>14379.787973212338</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1.55</v>
-      </c>
-      <c r="B9" s="1">
-        <v>83.5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11.98</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.69</v>
-      </c>
-      <c r="F9" s="1">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10">
+        <v>110</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1959</v>
+      </c>
+      <c r="G15" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="7"/>
+        <v>4.7004803657924166</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="0"/>
-        <v>68.166200000000003</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2975</v>
-      </c>
-      <c r="H9" s="1">
-        <v>9.15</v>
-      </c>
-      <c r="I9" s="4">
+        <v>510.46452271567131</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="1"/>
-        <v>336.1344537815126</v>
-      </c>
-      <c r="J9" s="4">
+        <v>15313.935681470139</v>
+      </c>
+      <c r="N15" s="3">
         <f t="shared" si="2"/>
-        <v>10084.033613445377</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="3"/>
-        <v>54.709383753501392</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5393854748603351</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="5"/>
-        <v>54.535344000000009</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="6">
-        <v>-6.69</v>
-      </c>
+        <v>73.113408201463344</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>O18/$U$4*100</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
+        <f t="shared" si="10"/>
+        <v>15328.502950436463</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.57</v>
-      </c>
-      <c r="D10" s="1">
-        <v>11.96</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6.51</v>
-      </c>
-      <c r="F10" s="1">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>115</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1872</v>
+      </c>
+      <c r="G16" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="7"/>
+        <v>4.7449321283632502</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="0"/>
-        <v>77.8596</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2721</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="I10" s="4">
+        <v>534.18803418803429</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
-        <v>367.51194413818456</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="2"/>
-        <v>11025.358324145536</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="3"/>
-        <v>59.816397157907645</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6223463687150836</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="5"/>
-        <v>58.846196000000006</v>
-      </c>
+        <v>16025.641025641029</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <f>C16*C16*$U$7+C16*$U$8+$U$9</f>
+        <v>16512.246590743318</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>92</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="D11" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.43</v>
-      </c>
-      <c r="F11" s="1">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10">
+        <v>120</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1782</v>
+      </c>
+      <c r="G17" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="7"/>
+        <v>4.7874917427820458</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="0"/>
-        <v>88.417000000000002</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2576</v>
-      </c>
-      <c r="H11" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="I11" s="4">
+        <v>561.16722783389457</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
-        <v>388.19875776397515</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="2"/>
-        <v>11645.962732919255</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="3"/>
-        <v>63.183391563147005</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6960893854748602</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="5"/>
-        <v>64.482500000000002</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="6">
-        <v>-8.8000000000000005E-3</v>
+        <v>16835.016835016839</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
+        <f t="shared" si="10"/>
+        <v>16512.246590743318</v>
+      </c>
+      <c r="W17" t="e">
+        <f>lin</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1.79</v>
-      </c>
-      <c r="B12" s="1">
-        <v>95</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.88</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11.86</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8.49</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>100.6914</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2427</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>412.03131437989288</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="2"/>
-        <v>12360.939431396786</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="3"/>
-        <v>67.062388408185697</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="4"/>
-        <v>1.7513966480446927</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="5"/>
-        <v>68.312976000000006</v>
-      </c>
-      <c r="N12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="6">
-        <v>2.7970000000000002</v>
-      </c>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R18" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.04</v>
-      </c>
-      <c r="D13" s="1">
-        <v>11.75</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>126.9</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2221</v>
-      </c>
-      <c r="H13" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>450.24763619990995</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="2"/>
-        <v>13507.429085997299</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="3"/>
-        <v>73.2824928710791</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8435754189944131</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="5"/>
-        <v>72.750864000000007</v>
-      </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="6">
-        <v>-118.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D14" s="1">
-        <v>11.55</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13.48</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>155.69400000000002</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2086</v>
-      </c>
-      <c r="H14" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>479.38638542665387</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="2"/>
-        <v>14381.591562799616</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="3"/>
-        <v>78.02512783636945</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="4"/>
-        <v>1.935754189944134</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="5"/>
-        <v>77.869104000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>110</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1959</v>
-      </c>
-      <c r="H15" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>510.46452271567131</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="2"/>
-        <v>15313.935681470139</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="3"/>
-        <v>83.083418410753794</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0279329608938546</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="5"/>
-        <v>82.289796000000024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2.14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>115</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1872</v>
-      </c>
-      <c r="H16" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="1"/>
-        <v>534.18803418803429</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="2"/>
-        <v>16025.641025641029</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="3"/>
-        <v>86.944667022792046</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="4"/>
-        <v>2.1201117318435756</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="5"/>
-        <v>87.450896</v>
-      </c>
-      <c r="Y16">
-        <f>1/0.015/2*2*PI()</f>
-        <v>209.43951023931956</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>120</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1782</v>
-      </c>
-      <c r="H17" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="1"/>
-        <v>561.16722783389457</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="2"/>
-        <v>16835.016835016839</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="3"/>
-        <v>91.335811821922945</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="4"/>
-        <v>2.2122905027932958</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="5"/>
-        <v>87.450896</v>
-      </c>
-      <c r="Y17">
-        <f>145/115</f>
-        <v>1.2608695652173914</v>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N20" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6500,291 +8819,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1">
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="10">
         <v>2</v>
       </c>
+      <c r="K1" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>2.4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>1421</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>1881</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f t="shared" ref="D2:E7" si="0">1/B2*1000000</f>
         <v>703.72976776917665</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f t="shared" si="0"/>
         <v>531.63211057947899</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:G7" si="1">D2*60/$M$1</f>
+      <c r="F2" s="1">
+        <f>D2*60/$J$1</f>
         <v>21111.893033075299</v>
       </c>
-      <c r="G2">
-        <f t="shared" si="1"/>
+      <c r="G2" s="1">
+        <f>E2*60/$J$1</f>
         <v>15948.96331738437</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2">
-        <v>4800</v>
+      <c r="H2" s="3">
+        <f>F2</f>
+        <v>21111.893033075299</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>1724</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>2372</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>580.04640371229698</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>421.58516020236084</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
+      <c r="F3" s="1">
+        <f>D3*60/$J$1</f>
         <v>17401.39211136891</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
+      <c r="G3" s="1">
+        <f>E3*60/$J$1</f>
         <v>12647.554806070824</v>
       </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H7" si="1">F3</f>
+        <v>17401.39211136891</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>2570</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>4114</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>389.10505836575879</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>243.07243558580456</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
+        <f>D4*60/$J$1</f>
+        <v>11673.151750972764</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E4*60/$J$1</f>
+        <v>7292.1730675741364</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>11673.151750972764</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>7292.1730675741364</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <f>M2*M3</f>
-        <v>57600</v>
-      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>1.3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>3052</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>6196</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>327.653997378768</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>161.39444803098772</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
+        <f>D5*60/$J$1</f>
+        <v>9829.6199213630407</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E5*60/$J$1</f>
+        <v>4841.8334409296313</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>9829.6199213630407</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>4841.8334409296313</v>
-      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="11">
+        <f>J3*J4</f>
+        <v>216</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>1.5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>2462</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>3944</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>406.17384240454913</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>253.54969574036511</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
+        <f>D6*60/$J$1</f>
+        <v>12185.215272136475</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E6*60/$J$1</f>
+        <v>7606.4908722109531</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>12185.215272136475</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>7606.4908722109531</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
+      <c r="I6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>1731</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>2266</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>577.70075101097632</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>441.30626654898504</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
+        <f>D7*60/$J$1</f>
+        <v>17331.02253032929</v>
+      </c>
+      <c r="G7" s="1">
+        <f>E7*60/$J$1</f>
+        <v>13239.187996469551</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>17331.02253032929</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>13239.187996469551</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <f>M6*M7</f>
-        <v>216</v>
-      </c>
-      <c r="N8" t="s">
-        <v>17</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15">
+        <f>INDEX(LINEST(G$2:G$7,$F$2:$F$7),1)</f>
+        <v>0.98475496900033965</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="16">
+        <f>INDEX(LINEST(F$2:F$7, G$2:G$7),1)</f>
+        <v>1.0071655948699643</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>15</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="17">
+        <f>INDEX(LINEST(G$2:G$7,$F$2:$F$7),2)</f>
+        <v>-4431.8614186108662</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="17">
+        <f>INDEX(LINEST(F$2:F$7, G$2:G$7),2)</f>
+        <v>4585.8101651150446</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -94,18 +94,6 @@
     <t>in, microsec</t>
   </si>
   <si>
-    <t>ANF2NG</t>
-  </si>
-  <si>
-    <t>ANG2NF</t>
-  </si>
-  <si>
-    <t>BNF2NG</t>
-  </si>
-  <si>
-    <t>BNG2NF</t>
-  </si>
-  <si>
     <t>max power</t>
   </si>
   <si>
@@ -127,19 +115,10 @@
     <t>Calc Ng from Throttle, rpm</t>
   </si>
   <si>
-    <t>AV42NF</t>
-  </si>
-  <si>
-    <t>BV42NF</t>
-  </si>
-  <si>
     <t>for 100% Ng at</t>
   </si>
   <si>
     <t>ln(throttle)</t>
-  </si>
-  <si>
-    <t>Pot, VDC</t>
   </si>
   <si>
     <t>pcngRef</t>
@@ -184,46 +163,64 @@
     <t>magnetic poles</t>
   </si>
   <si>
-    <t>AP2PNG</t>
+    <t>open loop: pot --&gt;  pcnfRef --&gt; nfRef --&gt; ngRef -ln-&gt; throttle</t>
   </si>
   <si>
-    <t>BP2PNG</t>
+    <t>P_V4_NF</t>
   </si>
   <si>
-    <t>AP2NG</t>
+    <t>P_P_PNF</t>
   </si>
   <si>
-    <t>BP2NG</t>
+    <t>P_NG_NF</t>
   </si>
   <si>
-    <t>AP2PNF</t>
+    <t>P_NF_NG</t>
   </si>
   <si>
-    <t>AP2NF</t>
+    <t>THTL_MIN</t>
   </si>
   <si>
-    <t>BP2NF</t>
+    <t>POT_MIN</t>
   </si>
   <si>
-    <t>BP2PNF</t>
+    <t>POT_MAX</t>
   </si>
   <si>
-    <t>CV42NF</t>
+    <t>F2V_MIN</t>
   </si>
   <si>
-    <t>ALT2NG</t>
+    <t>F2V_MAX</t>
   </si>
   <si>
-    <t>BLT2NG</t>
+    <t>P_P_THTL</t>
   </si>
   <si>
-    <t>POTMIN</t>
+    <t>THTL_MAX</t>
   </si>
   <si>
-    <t>POTMAX</t>
+    <t>potValue, v</t>
   </si>
   <si>
-    <t>open loop: pot --&gt;  pcnfRef --&gt; nfRef --&gt; ngRef -ln-&gt; throttle</t>
+    <t>throttle, deg</t>
+  </si>
+  <si>
+    <t>vemf, v</t>
+  </si>
+  <si>
+    <t>P_F_PNG</t>
+  </si>
+  <si>
+    <t>P_F_NG</t>
+  </si>
+  <si>
+    <t>P_F_NF</t>
+  </si>
+  <si>
+    <t>P_F_PNF</t>
+  </si>
+  <si>
+    <t>P_LT_NG</t>
   </si>
 </sst>
 </file>
@@ -232,8 +229,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -244,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,10 +319,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -331,6 +334,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,8 +885,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209083352"/>
-        <c:axId val="209081784"/>
+        <c:axId val="206457248"/>
+        <c:axId val="206459992"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1169,11 +1177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209080216"/>
-        <c:axId val="209082960"/>
+        <c:axId val="206460384"/>
+        <c:axId val="206457640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209083352"/>
+        <c:axId val="206457248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -1295,12 +1303,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209081784"/>
+        <c:crossAx val="206459992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209081784"/>
+        <c:axId val="206459992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,12 +1365,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209083352"/>
+        <c:crossAx val="206457248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209082960"/>
+        <c:axId val="206457640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -1406,12 +1414,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209080216"/>
+        <c:crossAx val="206460384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209080216"/>
+        <c:axId val="206460384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209082960"/>
+        <c:crossAx val="206457640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1758,8 +1766,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209080608"/>
-        <c:axId val="209084528"/>
+        <c:axId val="206461168"/>
+        <c:axId val="206461952"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1922,11 +1930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209077864"/>
-        <c:axId val="209077472"/>
+        <c:axId val="206458032"/>
+        <c:axId val="206456856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209080608"/>
+        <c:axId val="206461168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="216"/>
@@ -2026,12 +2034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209084528"/>
+        <c:crossAx val="206461952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209084528"/>
+        <c:axId val="206461952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2145,13 +2153,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209080608"/>
+        <c:crossAx val="206461168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209077472"/>
+        <c:axId val="206456856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -2196,13 +2204,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209077864"/>
+        <c:crossAx val="206458032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209077864"/>
+        <c:axId val="206458032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209077472"/>
+        <c:crossAx val="206456856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2572,11 +2580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209078648"/>
-        <c:axId val="209079824"/>
+        <c:axId val="204917064"/>
+        <c:axId val="208531976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209078648"/>
+        <c:axId val="204917064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -2691,12 +2699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209079824"/>
+        <c:crossAx val="208531976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209079824"/>
+        <c:axId val="208531976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20945"/>
@@ -2816,7 +2824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209078648"/>
+        <c:crossAx val="204917064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3154,11 +3162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205959624"/>
-        <c:axId val="205961584"/>
+        <c:axId val="208532368"/>
+        <c:axId val="208538248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205959624"/>
+        <c:axId val="208532368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3277,12 +3285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205961584"/>
+        <c:crossAx val="208538248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205961584"/>
+        <c:axId val="208538248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3402,7 +3410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205959624"/>
+        <c:crossAx val="208532368"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3588,11 +3596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205956880"/>
-        <c:axId val="205961976"/>
+        <c:axId val="208532760"/>
+        <c:axId val="208533152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205956880"/>
+        <c:axId val="208532760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20945"/>
@@ -3629,12 +3637,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205961976"/>
+        <c:crossAx val="208533152"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205961976"/>
+        <c:axId val="208533152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3666,7 +3674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205956880"/>
+        <c:crossAx val="208532760"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3911,11 +3919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205960016"/>
-        <c:axId val="205963544"/>
+        <c:axId val="208534328"/>
+        <c:axId val="208533544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205960016"/>
+        <c:axId val="208534328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -4035,12 +4043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205963544"/>
+        <c:crossAx val="208533544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205963544"/>
+        <c:axId val="208533544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -4154,7 +4162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205960016"/>
+        <c:crossAx val="208534328"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7464,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7489,12 +7497,12 @@
     <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.5546875" customWidth="1"/>
-    <col min="24" max="24" width="4.5546875" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" customWidth="1"/>
-    <col min="26" max="26" width="7.5546875" customWidth="1"/>
-    <col min="27" max="27" width="7.44140625" customWidth="1"/>
-    <col min="28" max="28" width="7.109375" customWidth="1"/>
-    <col min="29" max="29" width="7.21875" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" customWidth="1"/>
+    <col min="25" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.88671875" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="7.5546875" customWidth="1"/>
+    <col min="29" max="29" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
@@ -7508,10 +7516,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>5</v>
@@ -7520,16 +7528,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>3</v>
@@ -7541,19 +7549,19 @@
         <v>11</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T1" t="s">
         <v>4</v>
@@ -7562,22 +7570,22 @@
         <v>2</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7657,7 +7665,7 @@
         <v>4800</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="X2" s="11">
         <v>0</v>
@@ -7756,10 +7764,10 @@
         <v>12</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="X3" s="11">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y3">
         <v>100</v>
@@ -7860,24 +7868,24 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="X4" s="12"/>
       <c r="Y4" s="14">
         <f>INDEX(LINEST(Y$2:Y$3,$X$2:$X$3),1)</f>
-        <v>20</v>
+        <v>30.303030303030305</v>
       </c>
       <c r="Z4" s="14">
         <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),1)</f>
-        <v>4189.0909090909072</v>
+        <v>6347.1074380165273</v>
       </c>
       <c r="AB4" s="14">
         <f t="shared" ref="AB4:AC4" si="11">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),1)</f>
-        <v>4238.8558045992495</v>
+        <v>6422.5087948473483</v>
       </c>
       <c r="AC4" s="14">
         <f t="shared" si="11"/>
-        <v>20.237592817097106</v>
+        <v>30.663019419844112</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7948,7 +7956,7 @@
         <f t="shared" si="10"/>
         <v>7829.7506403399002</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="22">
         <f>Coupling!J5</f>
         <v>216</v>
       </c>
@@ -7962,7 +7970,7 @@
       </c>
       <c r="Z5" s="14">
         <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),2)</f>
-        <v>3.637978807091713E-12</v>
+        <v>1.8189894035458565E-12</v>
       </c>
       <c r="AB5" s="14">
         <f t="shared" ref="AB5:AC5" si="12">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),2)</f>
@@ -7970,7 +7978,7 @@
       </c>
       <c r="AC5" s="14">
         <f t="shared" si="12"/>
-        <v>-23.871527777777768</v>
+        <v>-23.871527777777782</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8042,16 +8050,16 @@
         <v>8309.2357673476217</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8123,27 +8131,19 @@
         <v>8813.4082722245112</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" s="5">
+        <v>48</v>
+      </c>
+      <c r="U7" s="13">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),1)</f>
         <v>-586.95945682909951</v>
       </c>
       <c r="W7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>61</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
     </row>
     <row r="8" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -8213,15 +8213,13 @@
         <f t="shared" si="10"/>
         <v>9186.6071914448148</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="T8" s="5"/>
+      <c r="U8" s="14">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),2)</f>
         <v>7734.3373856241196</v>
       </c>
       <c r="W8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8294,15 +8292,13 @@
         <f t="shared" si="10"/>
         <v>9920.3267056179102</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="T9" s="5"/>
       <c r="U9" s="5">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8374,7 +8370,7 @@
         <v>10696.113330291821</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U10" s="5">
         <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),1)</f>
@@ -8449,15 +8445,13 @@
         <f t="shared" si="10"/>
         <v>11737.527088303092</v>
       </c>
-      <c r="T11" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="T11" s="5"/>
       <c r="U11" s="14">
         <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),2)</f>
         <v>-74858.727283247674</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1.79</v>
       </c>
@@ -8530,6 +8524,15 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
+      <c r="X12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -8599,8 +8602,22 @@
         <f t="shared" si="10"/>
         <v>13335.357791133223</v>
       </c>
-      <c r="T13" s="7"/>
       <c r="V13" s="7"/>
+      <c r="W13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -8670,8 +8687,22 @@
         <f t="shared" si="10"/>
         <v>14379.787973212338</v>
       </c>
-      <c r="T14" s="7"/>
       <c r="V14" s="7"/>
+      <c r="W14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>115</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA14">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
@@ -8718,6 +8749,14 @@
       </c>
       <c r="T15" s="7"/>
       <c r="V15" s="7"/>
+      <c r="Y15" s="7">
+        <f>(Y14-Y13)/(X14-X13)</f>
+        <v>15</v>
+      </c>
+      <c r="AA15" s="5">
+        <f>(AA14-AA13)/(X14-X13)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -8760,8 +8799,16 @@
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
+      <c r="Y16" s="7">
+        <f>Y14-Y15*X14</f>
+        <v>40</v>
+      </c>
+      <c r="AA16" s="5">
+        <f>AA14-AA15*(X14-X13)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="10">
         <v>120</v>
@@ -8798,17 +8845,19 @@
         <f t="shared" si="10"/>
         <v>16512.246590743318</v>
       </c>
-      <c r="W17" t="e">
-        <f>lin</f>
-        <v>#NAME?</v>
+      <c r="Y17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="R18" s="3"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="N20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8822,7 +8871,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8875,7 +8924,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -8897,11 +8946,11 @@
         <v>531.63211057947899</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*60/$J$1</f>
+        <f t="shared" ref="F2:G7" si="1">D2*60/$J$1</f>
         <v>21111.893033075299</v>
       </c>
       <c r="G2" s="1">
-        <f>E2*60/$J$1</f>
+        <f t="shared" si="1"/>
         <v>15948.96331738437</v>
       </c>
       <c r="H2" s="3">
@@ -8928,15 +8977,15 @@
         <v>421.58516020236084</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*60/$J$1</f>
+        <f t="shared" si="1"/>
         <v>17401.39211136891</v>
       </c>
       <c r="G3" s="1">
-        <f>E3*60/$J$1</f>
+        <f t="shared" si="1"/>
         <v>12647.554806070824</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H7" si="1">F3</f>
+        <f t="shared" ref="H3:H7" si="2">F3</f>
         <v>17401.39211136891</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -8946,7 +8995,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -8970,15 +9019,15 @@
         <v>243.07243558580456</v>
       </c>
       <c r="F4" s="1">
-        <f>D4*60/$J$1</f>
+        <f t="shared" si="1"/>
         <v>11673.151750972764</v>
       </c>
       <c r="G4" s="1">
-        <f>E4*60/$J$1</f>
+        <f t="shared" si="1"/>
         <v>7292.1730675741364</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11673.151750972764</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -9012,26 +9061,26 @@
         <v>161.39444803098772</v>
       </c>
       <c r="F5" s="1">
-        <f>D5*60/$J$1</f>
-        <v>9829.6199213630407</v>
-      </c>
-      <c r="G5" s="1">
-        <f>E5*60/$J$1</f>
-        <v>4841.8334409296313</v>
-      </c>
-      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>9829.6199213630407</v>
       </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>4841.8334409296313</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>9829.6199213630407</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="21">
         <f>J3*J4</f>
         <v>216</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9055,19 +9104,19 @@
         <v>253.54969574036511</v>
       </c>
       <c r="F6" s="1">
-        <f>D6*60/$J$1</f>
-        <v>12185.215272136475</v>
-      </c>
-      <c r="G6" s="1">
-        <f>E6*60/$J$1</f>
-        <v>7606.4908722109531</v>
-      </c>
-      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>12185.215272136475</v>
       </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>7606.4908722109531</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>12185.215272136475</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1">
         <v>25</v>
@@ -9097,28 +9146,28 @@
         <v>441.30626654898504</v>
       </c>
       <c r="F7" s="1">
-        <f>D7*60/$J$1</f>
+        <f t="shared" si="1"/>
         <v>17331.02253032929</v>
       </c>
       <c r="G7" s="1">
-        <f>E7*60/$J$1</f>
+        <f t="shared" si="1"/>
         <v>13239.187996469551</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17331.02253032929</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C8" s="15">
         <f>INDEX(LINEST(G$2:G$7,$F$2:$F$7),1)</f>
         <v>0.98475496900033965</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J8" s="16">
         <f>INDEX(LINEST(F$2:F$7, G$2:G$7),1)</f>
@@ -9126,16 +9175,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="17">
         <f>INDEX(LINEST(G$2:G$7,$F$2:$F$7),2)</f>
         <v>-4431.8614186108662</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="17">
         <f>INDEX(LINEST(F$2:F$7, G$2:G$7),2)</f>
         <v>4585.8101651150446</v>

--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -222,6 +222,9 @@
   <si>
     <t>P_LT_NG</t>
   </si>
+  <si>
+    <t>Calc Throttle from Ng, deg</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +342,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,8 +891,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206457248"/>
-        <c:axId val="206459992"/>
+        <c:axId val="474309080"/>
+        <c:axId val="474310648"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1177,11 +1183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206460384"/>
-        <c:axId val="206457640"/>
+        <c:axId val="474308688"/>
+        <c:axId val="474304376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206457248"/>
+        <c:axId val="474309080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -1303,12 +1309,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206459992"/>
+        <c:crossAx val="474310648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206459992"/>
+        <c:axId val="474310648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,12 +1371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206457248"/>
+        <c:crossAx val="474309080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206457640"/>
+        <c:axId val="474304376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -1414,12 +1420,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206460384"/>
+        <c:crossAx val="474308688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206460384"/>
+        <c:axId val="474308688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206457640"/>
+        <c:crossAx val="474304376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,8 +1772,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206461168"/>
-        <c:axId val="206461952"/>
+        <c:axId val="474306728"/>
+        <c:axId val="474307120"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1930,11 +1936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206458032"/>
-        <c:axId val="206456856"/>
+        <c:axId val="473523040"/>
+        <c:axId val="474307512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206461168"/>
+        <c:axId val="474306728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="216"/>
@@ -2034,12 +2040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206461952"/>
+        <c:crossAx val="474307120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206461952"/>
+        <c:axId val="474307120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2153,13 +2159,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206461168"/>
+        <c:crossAx val="474306728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206456856"/>
+        <c:axId val="474307512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -2204,13 +2210,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206458032"/>
+        <c:crossAx val="473523040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206458032"/>
+        <c:axId val="473523040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,7 +2226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206456856"/>
+        <c:crossAx val="474307512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2580,11 +2586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204917064"/>
-        <c:axId val="208531976"/>
+        <c:axId val="473517944"/>
+        <c:axId val="473519512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204917064"/>
+        <c:axId val="473517944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -2699,12 +2705,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208531976"/>
+        <c:crossAx val="473519512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208531976"/>
+        <c:axId val="473519512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20945"/>
@@ -2824,7 +2830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204917064"/>
+        <c:crossAx val="473517944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3162,11 +3168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208532368"/>
-        <c:axId val="208538248"/>
+        <c:axId val="473520296"/>
+        <c:axId val="473522256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208532368"/>
+        <c:axId val="473520296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3285,12 +3291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208538248"/>
+        <c:crossAx val="473522256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208538248"/>
+        <c:axId val="473522256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3410,7 +3416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208532368"/>
+        <c:crossAx val="473520296"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3489,7 +3495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3596,11 +3601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208532760"/>
-        <c:axId val="208533152"/>
+        <c:axId val="473521080"/>
+        <c:axId val="472310216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208532760"/>
+        <c:axId val="473521080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20945"/>
@@ -3630,19 +3635,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208533152"/>
+        <c:crossAx val="472310216"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208533152"/>
+        <c:axId val="472310216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3667,14 +3671,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208532760"/>
+        <c:crossAx val="473521080"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3824,7 +3827,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3919,11 +3921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208534328"/>
-        <c:axId val="208533544"/>
+        <c:axId val="472315312"/>
+        <c:axId val="472314136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208534328"/>
+        <c:axId val="472315312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3976,7 +3978,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4043,12 +4044,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208533544"/>
+        <c:crossAx val="472314136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208533544"/>
+        <c:axId val="472314136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -4095,7 +4096,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4162,7 +4162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208534328"/>
+        <c:crossAx val="472315312"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7091,7 +7091,7 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -7470,10 +7470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7492,20 +7492,20 @@
     <col min="14" max="14" width="4.21875" style="1" customWidth="1"/>
     <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5546875" customWidth="1"/>
-    <col min="24" max="24" width="11.5546875" customWidth="1"/>
-    <col min="25" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.88671875" customWidth="1"/>
-    <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" customWidth="1"/>
-    <col min="29" max="29" width="7.88671875" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
+    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" customWidth="1"/>
+    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" customWidth="1"/>
+    <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="29" max="29" width="7.5546875" customWidth="1"/>
+    <col min="30" max="30" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -7561,34 +7561,37 @@
         <v>30</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="6">
+      <c r="V1" s="6">
         <v>2</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1.1399999999999999</v>
       </c>
@@ -7631,11 +7634,11 @@
         <v>116.07661056297157</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M17" si="1">L2*60/$U$1</f>
+        <f t="shared" ref="M2:M17" si="1">L2*60/$V$1</f>
         <v>3482.2983168891469</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N15" si="2">M2/$U$4*100</f>
+        <f t="shared" ref="N2:N15" si="2">M2/$V$4*100</f>
         <v>16.625556200425613</v>
       </c>
       <c r="O2" s="3">
@@ -7647,49 +7650,53 @@
         <v>61</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q14" si="3">O2/$U$4*100</f>
+        <f t="shared" ref="Q2:Q14" si="3">O2/$V$4*100</f>
         <v>38.638747148677588</v>
       </c>
       <c r="R2" s="3">
-        <f>$U$10*LN(B2)+$U$11</f>
+        <f>$V$10*LN(B2)+$V$11</f>
         <v>8196.636802490626</v>
       </c>
-      <c r="S2" s="3">
-        <f>C2*C2*$U$7+C2*$U$8+$U$9</f>
+      <c r="S2" s="23">
+        <f>EXP((R2-$V$11)/$V$10)</f>
+        <v>61.000000000000007</v>
+      </c>
+      <c r="T2" s="3">
+        <f>C2*C2*$V$7+C2*$V$8+$V$9</f>
         <v>4005.3848106256592</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>4800</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="11">
+      <c r="Y2" s="11">
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <f>Y2*$U$4/100</f>
+      <c r="AA2">
+        <f>Z2*$V$4/100</f>
         <v>0</v>
       </c>
-      <c r="AA2">
-        <f>EXP((Z2-$U$11)/$U$10)</f>
+      <c r="AB2">
+        <f>EXP((AA2-$V$11)/$V$10)</f>
         <v>40.65722380177391</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>-5000</v>
       </c>
-      <c r="AC2">
-        <f>AB2/$U$4*100</f>
+      <c r="AD2">
+        <f>AC2/$V$4*100</f>
         <v>-23.871527777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="10">
         <v>65</v>
@@ -7750,46 +7757,50 @@
         <v>44.828158923956003</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R14" si="9">$U$10*LN(B3)+$U$11</f>
+        <f t="shared" ref="R3:R14" si="9">$V$10*LN(B3)+$V$11</f>
         <v>9479.8503504825057</v>
       </c>
-      <c r="S3" s="3">
-        <f t="shared" ref="S3:S17" si="10">C3*C3*$U$7+C3*$U$8+$U$9</f>
+      <c r="S3" s="23">
+        <f t="shared" ref="S3:S14" si="10">EXP((R3-$V$11)/$V$10)</f>
+        <v>64.999999999999986</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T17" si="11">C3*C3*$V$7+C3*$V$8+$V$9</f>
         <v>4987.9393693866259</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>12</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="11">
+      <c r="Y3" s="11">
         <v>3.3</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>100</v>
       </c>
-      <c r="Z3">
-        <f>Y3*$U$4/100</f>
+      <c r="AA3">
+        <f>Z3*$V$4/100</f>
         <v>20945.454545454544</v>
       </c>
-      <c r="AA3">
-        <f>EXP((Z3-$U$11)/$U$10)</f>
+      <c r="AB3">
+        <f>EXP((AA3-$V$11)/$V$10)</f>
         <v>114.65000595374373</v>
       </c>
-      <c r="AB3">
-        <f>Z3*Coupling!$C$8+Coupling!$C$9</f>
+      <c r="AC3">
+        <f>AA3*Coupling!$C$8+Coupling!$C$9</f>
         <v>16194.279022996247</v>
       </c>
-      <c r="AC3">
-        <f>AB3/$U$4*100</f>
+      <c r="AD3">
+        <f>AC3/$V$4*100</f>
         <v>77.316436307707775</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="10">
         <v>70</v>
@@ -7853,42 +7864,46 @@
         <f t="shared" si="9"/>
         <v>10977.114633516147</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="23">
         <f t="shared" si="10"/>
+        <v>70.000000000000028</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="11"/>
         <v>6485.4664870301367</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="13">
-        <f>U2*U3/V4</f>
+      <c r="V4" s="13">
+        <f>V2*V3/W4</f>
         <v>20945.454545454544</v>
       </c>
-      <c r="V4" s="6">
+      <c r="W4" s="6">
         <v>2.75</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="14">
-        <f>INDEX(LINEST(Y$2:Y$3,$X$2:$X$3),1)</f>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="14">
+        <f>INDEX(LINEST(Z$2:Z$3,$Y$2:$Y$3),1)</f>
         <v>30.303030303030305</v>
       </c>
-      <c r="Z4" s="14">
-        <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),1)</f>
+      <c r="AA4" s="14">
+        <f>INDEX(LINEST($AA$2:$AA$3,$Y$2:$Y$3),1)</f>
         <v>6347.1074380165273</v>
       </c>
-      <c r="AB4" s="14">
-        <f t="shared" ref="AB4:AC4" si="11">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),1)</f>
+      <c r="AC4" s="14">
+        <f t="shared" ref="AC4:AD4" si="12">INDEX(LINEST(AC$2:AC$3,$Y$2:$Y$3),1)</f>
         <v>6422.5087948473483</v>
       </c>
-      <c r="AC4" s="14">
-        <f t="shared" si="11"/>
+      <c r="AD4" s="14">
+        <f t="shared" si="12"/>
         <v>30.663019419844112</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="10">
         <v>75</v>
@@ -7952,36 +7967,40 @@
         <f t="shared" si="9"/>
         <v>12371.034332830881</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="23">
         <f t="shared" si="10"/>
+        <v>74.999999999999972</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="11"/>
         <v>7829.7506403399002</v>
       </c>
-      <c r="V5" s="22">
+      <c r="W5" s="22">
         <f>Coupling!J5</f>
         <v>216</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="14">
-        <f>INDEX(LINEST(Y$2:Y$3,$X$2:$X$3),2)</f>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="14">
+        <f>INDEX(LINEST(Z$2:Z$3,$Y$2:$Y$3),2)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="14">
-        <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),2)</f>
+      <c r="AA5" s="14">
+        <f>INDEX(LINEST($AA$2:$AA$3,$Y$2:$Y$3),2)</f>
         <v>1.8189894035458565E-12</v>
       </c>
-      <c r="AB5" s="14">
-        <f t="shared" ref="AB5:AC5" si="12">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),2)</f>
+      <c r="AC5" s="14">
+        <f t="shared" ref="AC5:AD5" si="13">INDEX(LINEST(AC$2:AC$3,$Y$2:$Y$3),2)</f>
         <v>-5000.0000000000009</v>
       </c>
-      <c r="AC5" s="14">
-        <f t="shared" si="12"/>
+      <c r="AD5" s="14">
+        <f t="shared" si="13"/>
         <v>-23.871527777777782</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="10">
         <v>77</v>
@@ -8045,24 +8064,28 @@
         <f t="shared" si="9"/>
         <v>12902.744547319715</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="23">
         <f t="shared" si="10"/>
+        <v>77.000000000000014</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="11"/>
         <v>8309.2357673476217</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Z6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AA6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AC6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AD6" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="10">
         <v>79</v>
@@ -8126,26 +8149,30 @@
         <f t="shared" si="9"/>
         <v>13420.819652760169</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="23">
         <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="11"/>
         <v>8813.4082722245112</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="13">
+      <c r="V7" s="13">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),1)</f>
         <v>-586.95945682909951</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>39</v>
       </c>
-      <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="AA7" s="20"/>
       <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="10">
         <v>81</v>
@@ -8209,20 +8236,24 @@
         <f t="shared" si="9"/>
         <v>13925.941513925834</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="23">
         <f t="shared" si="10"/>
+        <v>81.000000000000028</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="11"/>
         <v>9186.6071914448148</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="14">
+      <c r="U8" s="5"/>
+      <c r="V8" s="14">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),2)</f>
         <v>7734.3373856241196</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1.55</v>
       </c>
@@ -8288,20 +8319,24 @@
         <f t="shared" si="9"/>
         <v>14540.08673420093</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="23">
         <f t="shared" si="10"/>
+        <v>83.500000000000014</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="11"/>
         <v>9920.3267056179102</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="10">
         <v>88</v>
@@ -8365,19 +8400,23 @@
         <f t="shared" si="9"/>
         <v>15600.589044072636</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="23">
         <f t="shared" si="10"/>
+        <v>88.000000000000028</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="11"/>
         <v>10696.113330291821</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),1)</f>
         <v>20203.822065564778</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="10">
         <v>92</v>
@@ -8441,17 +8480,21 @@
         <f t="shared" si="9"/>
         <v>16498.684545554497</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="23">
         <f t="shared" si="10"/>
+        <v>92.000000000000014</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="11"/>
         <v>11737.527088303092</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="14">
+      <c r="U11" s="5"/>
+      <c r="V11" s="14">
         <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),2)</f>
         <v>-74858.727283247674</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1.79</v>
       </c>
@@ -8517,24 +8560,28 @@
         <f t="shared" si="9"/>
         <v>17146.991143136882</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="23">
         <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="11"/>
         <v>12466.004780756575</v>
       </c>
-      <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="X12" s="18" t="s">
+      <c r="W12" s="7"/>
+      <c r="Y12" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="Z12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="10">
         <v>100</v>
@@ -8598,28 +8645,32 @@
         <f t="shared" si="9"/>
         <v>18183.311736099597</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="23">
         <f t="shared" si="10"/>
+        <v>100.00000000000004</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="11"/>
         <v>13335.357791133223</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="7"/>
+      <c r="X13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <v>0</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Z13" s="5">
         <v>40</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="AA13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="10">
         <v>105</v>
@@ -8683,28 +8734,32 @@
         <f t="shared" si="9"/>
         <v>19169.059531528474</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="23">
         <f t="shared" si="10"/>
+        <v>104.99999999999997</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="11"/>
         <v>14379.787973212338</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="7"/>
+      <c r="X14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Y14" s="5">
         <v>5</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Z14" s="5">
         <v>115</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="AA14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="10">
         <v>110</v>
@@ -8739,26 +8794,27 @@
         <v>73.113408201463344</v>
       </c>
       <c r="Q15" s="3">
-        <f>O18/$U$4*100</f>
+        <f>O18/$V$4*100</f>
         <v>0</v>
       </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="3">
-        <f t="shared" si="10"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3">
+        <f t="shared" si="11"/>
         <v>15328.502950436463</v>
       </c>
-      <c r="T15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="Y15" s="7">
-        <f>(Y14-Y13)/(X14-X13)</f>
+      <c r="U15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="Z15" s="7">
+        <f>(Z14-Z13)/(Y14-Y13)</f>
         <v>15</v>
       </c>
-      <c r="AA15" s="5">
-        <f>(AA14-AA13)/(X14-X13)</f>
+      <c r="AB15" s="5">
+        <f>(AB14-AB13)/(Y14-Y13)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2.14</v>
       </c>
@@ -8793,22 +8849,23 @@
       <c r="N16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3">
-        <f>C16*C16*$U$7+C16*$U$8+$U$9</f>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3">
+        <f>C16*C16*$V$7+C16*$V$8+$V$9</f>
         <v>16512.246590743318</v>
       </c>
-      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="Y16" s="7">
-        <f>Y14-Y15*X14</f>
+      <c r="V16" s="7"/>
+      <c r="Z16" s="7">
+        <f>Z14-Z15*Y14</f>
         <v>40</v>
       </c>
-      <c r="AA16" s="5">
-        <f>AA14-AA15*(X14-X13)</f>
+      <c r="AB16" s="5">
+        <f>AB14-AB15*(Y14-Y13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="10">
         <v>120</v>
@@ -8841,21 +8898,23 @@
       <c r="N17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3">
-        <f t="shared" si="10"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <f t="shared" si="11"/>
         <v>16512.246590743318</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="Z17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AB17" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N20" s="1" t="s">
         <v>24</v>
       </c>

--- a/myESC-Particle-DEV/saves/calibration20160913.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20160913.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -222,9 +222,6 @@
   <si>
     <t>P_LT_NG</t>
   </si>
-  <si>
-    <t>Calc Throttle from Ng, deg</t>
-  </si>
 </sst>
 </file>
 
@@ -288,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,9 +339,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,8 +885,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474309080"/>
-        <c:axId val="474310648"/>
+        <c:axId val="206457248"/>
+        <c:axId val="206459992"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1183,11 +1177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474308688"/>
-        <c:axId val="474304376"/>
+        <c:axId val="206460384"/>
+        <c:axId val="206457640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474309080"/>
+        <c:axId val="206457248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -1309,12 +1303,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474310648"/>
+        <c:crossAx val="206459992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474310648"/>
+        <c:axId val="206459992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,12 +1365,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474309080"/>
+        <c:crossAx val="206457248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474304376"/>
+        <c:axId val="206457640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -1420,12 +1414,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474308688"/>
+        <c:crossAx val="206460384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474308688"/>
+        <c:axId val="206460384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474304376"/>
+        <c:crossAx val="206457640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1772,8 +1766,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474306728"/>
-        <c:axId val="474307120"/>
+        <c:axId val="206461168"/>
+        <c:axId val="206461952"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1936,11 +1930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473523040"/>
-        <c:axId val="474307512"/>
+        <c:axId val="206458032"/>
+        <c:axId val="206456856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474306728"/>
+        <c:axId val="206461168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="216"/>
@@ -2040,12 +2034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474307120"/>
+        <c:crossAx val="206461952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474307120"/>
+        <c:axId val="206461952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2159,13 +2153,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474306728"/>
+        <c:crossAx val="206461168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474307512"/>
+        <c:axId val="206456856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -2210,13 +2204,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473523040"/>
+        <c:crossAx val="206458032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473523040"/>
+        <c:axId val="206458032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474307512"/>
+        <c:crossAx val="206456856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2586,11 +2580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473517944"/>
-        <c:axId val="473519512"/>
+        <c:axId val="204917064"/>
+        <c:axId val="208531976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473517944"/>
+        <c:axId val="204917064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -2705,12 +2699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473519512"/>
+        <c:crossAx val="208531976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473519512"/>
+        <c:axId val="208531976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20945"/>
@@ -2830,7 +2824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473517944"/>
+        <c:crossAx val="204917064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,11 +3162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473520296"/>
-        <c:axId val="473522256"/>
+        <c:axId val="208532368"/>
+        <c:axId val="208538248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473520296"/>
+        <c:axId val="208532368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3291,12 +3285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473522256"/>
+        <c:crossAx val="208538248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473522256"/>
+        <c:axId val="208538248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3416,7 +3410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473520296"/>
+        <c:crossAx val="208532368"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3495,6 +3489,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3601,11 +3596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473521080"/>
-        <c:axId val="472310216"/>
+        <c:axId val="208532760"/>
+        <c:axId val="208533152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473521080"/>
+        <c:axId val="208532760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20945"/>
@@ -3635,18 +3630,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472310216"/>
+        <c:crossAx val="208533152"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472310216"/>
+        <c:axId val="208533152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3671,13 +3667,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473521080"/>
+        <c:crossAx val="208532760"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3827,6 +3824,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3921,11 +3919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472315312"/>
-        <c:axId val="472314136"/>
+        <c:axId val="208534328"/>
+        <c:axId val="208533544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472315312"/>
+        <c:axId val="208534328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16194"/>
@@ -3978,6 +3976,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4044,12 +4043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472314136"/>
+        <c:crossAx val="208533544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472314136"/>
+        <c:axId val="208533544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -4096,6 +4095,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4162,7 +4162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472315312"/>
+        <c:crossAx val="208534328"/>
         <c:crossesAt val="-5000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7091,7 +7091,7 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -7470,10 +7470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7492,20 +7492,20 @@
     <col min="14" max="14" width="4.21875" style="1" customWidth="1"/>
     <col min="15" max="16" width="7.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="7.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5546875" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.88671875" customWidth="1"/>
-    <col min="28" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="7.5546875" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" customWidth="1"/>
+    <col min="25" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.88671875" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="7.5546875" customWidth="1"/>
+    <col min="29" max="29" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -7561,37 +7561,34 @@
         <v>30</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="6">
+      <c r="U1" s="6">
         <v>2</v>
       </c>
+      <c r="X1" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="Y1" s="18" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1.1399999999999999</v>
       </c>
@@ -7634,11 +7631,11 @@
         <v>116.07661056297157</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M17" si="1">L2*60/$V$1</f>
+        <f t="shared" ref="M2:M17" si="1">L2*60/$U$1</f>
         <v>3482.2983168891469</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N15" si="2">M2/$V$4*100</f>
+        <f t="shared" ref="N2:N15" si="2">M2/$U$4*100</f>
         <v>16.625556200425613</v>
       </c>
       <c r="O2" s="3">
@@ -7650,53 +7647,49 @@
         <v>61</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q14" si="3">O2/$V$4*100</f>
+        <f t="shared" ref="Q2:Q14" si="3">O2/$U$4*100</f>
         <v>38.638747148677588</v>
       </c>
       <c r="R2" s="3">
-        <f>$V$10*LN(B2)+$V$11</f>
+        <f>$U$10*LN(B2)+$U$11</f>
         <v>8196.636802490626</v>
       </c>
-      <c r="S2" s="23">
-        <f>EXP((R2-$V$11)/$V$10)</f>
-        <v>61.000000000000007</v>
-      </c>
-      <c r="T2" s="3">
-        <f>C2*C2*$V$7+C2*$V$8+$V$9</f>
+      <c r="S2" s="3">
+        <f>C2*C2*$U$7+C2*$U$8+$U$9</f>
         <v>4005.3848106256592</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="6">
+      <c r="U2" s="6">
         <v>4800</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="X2" s="11">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
       <c r="Z2">
+        <f>Y2*$U$4/100</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>Z2*$V$4/100</f>
-        <v>0</v>
+        <f>EXP((Z2-$U$11)/$U$10)</f>
+        <v>40.65722380177391</v>
       </c>
       <c r="AB2">
-        <f>EXP((AA2-$V$11)/$V$10)</f>
-        <v>40.65722380177391</v>
+        <v>-5000</v>
       </c>
       <c r="AC2">
-        <v>-5000</v>
-      </c>
-      <c r="AD2">
-        <f>AC2/$V$4*100</f>
+        <f>AB2/$U$4*100</f>
         <v>-23.871527777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="10">
         <v>65</v>
@@ -7757,50 +7750,46 @@
         <v>44.828158923956003</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R14" si="9">$V$10*LN(B3)+$V$11</f>
+        <f t="shared" ref="R3:R14" si="9">$U$10*LN(B3)+$U$11</f>
         <v>9479.8503504825057</v>
       </c>
-      <c r="S3" s="23">
-        <f t="shared" ref="S3:S14" si="10">EXP((R3-$V$11)/$V$10)</f>
-        <v>64.999999999999986</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T17" si="11">C3*C3*$V$7+C3*$V$8+$V$9</f>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S17" si="10">C3*C3*$U$7+C3*$U$8+$U$9</f>
         <v>4987.9393693866259</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="6">
+      <c r="U3" s="6">
         <v>12</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="X3" s="11">
         <v>3.3</v>
       </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
       <c r="Z3">
-        <v>100</v>
+        <f>Y3*$U$4/100</f>
+        <v>20945.454545454544</v>
       </c>
       <c r="AA3">
-        <f>Z3*$V$4/100</f>
-        <v>20945.454545454544</v>
+        <f>EXP((Z3-$U$11)/$U$10)</f>
+        <v>114.65000595374373</v>
       </c>
       <c r="AB3">
-        <f>EXP((AA3-$V$11)/$V$10)</f>
-        <v>114.65000595374373</v>
+        <f>Z3*Coupling!$C$8+Coupling!$C$9</f>
+        <v>16194.279022996247</v>
       </c>
       <c r="AC3">
-        <f>AA3*Coupling!$C$8+Coupling!$C$9</f>
-        <v>16194.279022996247</v>
-      </c>
-      <c r="AD3">
-        <f>AC3/$V$4*100</f>
+        <f>AB3/$U$4*100</f>
         <v>77.316436307707775</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="10">
         <v>70</v>
@@ -7864,46 +7853,42 @@
         <f t="shared" si="9"/>
         <v>10977.114633516147</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="3">
         <f t="shared" si="10"/>
-        <v>70.000000000000028</v>
-      </c>
-      <c r="T4" s="3">
+        <v>6485.4664870301367</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="13">
+        <f>U2*U3/V4</f>
+        <v>20945.454545454544</v>
+      </c>
+      <c r="V4" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="14">
+        <f>INDEX(LINEST(Y$2:Y$3,$X$2:$X$3),1)</f>
+        <v>30.303030303030305</v>
+      </c>
+      <c r="Z4" s="14">
+        <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),1)</f>
+        <v>6347.1074380165273</v>
+      </c>
+      <c r="AB4" s="14">
+        <f t="shared" ref="AB4:AC4" si="11">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),1)</f>
+        <v>6422.5087948473483</v>
+      </c>
+      <c r="AC4" s="14">
         <f t="shared" si="11"/>
-        <v>6485.4664870301367</v>
-      </c>
-      <c r="U4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="13">
-        <f>V2*V3/W4</f>
-        <v>20945.454545454544</v>
-      </c>
-      <c r="W4" s="6">
-        <v>2.75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="14">
-        <f>INDEX(LINEST(Z$2:Z$3,$Y$2:$Y$3),1)</f>
-        <v>30.303030303030305</v>
-      </c>
-      <c r="AA4" s="14">
-        <f>INDEX(LINEST($AA$2:$AA$3,$Y$2:$Y$3),1)</f>
-        <v>6347.1074380165273</v>
-      </c>
-      <c r="AC4" s="14">
-        <f t="shared" ref="AC4:AD4" si="12">INDEX(LINEST(AC$2:AC$3,$Y$2:$Y$3),1)</f>
-        <v>6422.5087948473483</v>
-      </c>
-      <c r="AD4" s="14">
-        <f t="shared" si="12"/>
         <v>30.663019419844112</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="10">
         <v>75</v>
@@ -7967,40 +7952,36 @@
         <f t="shared" si="9"/>
         <v>12371.034332830881</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="3">
         <f t="shared" si="10"/>
-        <v>74.999999999999972</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="11"/>
         <v>7829.7506403399002</v>
       </c>
-      <c r="W5" s="22">
+      <c r="V5" s="22">
         <f>Coupling!J5</f>
         <v>216</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="14">
+        <f>INDEX(LINEST(Y$2:Y$3,$X$2:$X$3),2)</f>
+        <v>0</v>
+      </c>
       <c r="Z5" s="14">
-        <f>INDEX(LINEST(Z$2:Z$3,$Y$2:$Y$3),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="14">
-        <f>INDEX(LINEST($AA$2:$AA$3,$Y$2:$Y$3),2)</f>
+        <f>INDEX(LINEST($Z$2:$Z$3,$X$2:$X$3),2)</f>
         <v>1.8189894035458565E-12</v>
       </c>
+      <c r="AB5" s="14">
+        <f t="shared" ref="AB5:AC5" si="12">INDEX(LINEST(AB$2:AB$3,$X$2:$X$3),2)</f>
+        <v>-5000.0000000000009</v>
+      </c>
       <c r="AC5" s="14">
-        <f t="shared" ref="AC5:AD5" si="13">INDEX(LINEST(AC$2:AC$3,$Y$2:$Y$3),2)</f>
-        <v>-5000.0000000000009</v>
-      </c>
-      <c r="AD5" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-23.871527777777782</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="10">
         <v>77</v>
@@ -8064,28 +8045,24 @@
         <f t="shared" si="9"/>
         <v>12902.744547319715</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="3">
         <f t="shared" si="10"/>
-        <v>77.000000000000014</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" si="11"/>
         <v>8309.2357673476217</v>
       </c>
+      <c r="Y6" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="Z6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA6" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="AB6" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="AC6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="10">
         <v>79</v>
@@ -8149,30 +8126,26 @@
         <f t="shared" si="9"/>
         <v>13420.819652760169</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="3">
         <f t="shared" si="10"/>
-        <v>79</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="11"/>
         <v>8813.4082722245112</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="13">
+      <c r="U7" s="13">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),1)</f>
         <v>-586.95945682909951</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>39</v>
       </c>
+      <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="10">
         <v>81</v>
@@ -8236,24 +8209,20 @@
         <f t="shared" si="9"/>
         <v>13925.941513925834</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="3">
         <f t="shared" si="10"/>
-        <v>81.000000000000028</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="11"/>
         <v>9186.6071914448148</v>
       </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="14">
+      <c r="T8" s="5"/>
+      <c r="U8" s="14">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),2)</f>
         <v>7734.3373856241196</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1.55</v>
       </c>
@@ -8319,24 +8288,20 @@
         <f t="shared" si="9"/>
         <v>14540.08673420093</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="3">
         <f t="shared" si="10"/>
-        <v>83.500000000000014</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" si="11"/>
         <v>9920.3267056179102</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5">
         <f>INDEX(LINEST($M$2:$M$17,$C$2:$C$17^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="10">
         <v>88</v>
@@ -8400,23 +8365,19 @@
         <f t="shared" si="9"/>
         <v>15600.589044072636</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="3">
         <f t="shared" si="10"/>
-        <v>88.000000000000028</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" si="11"/>
         <v>10696.113330291821</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V10" s="5">
+      <c r="U10" s="5">
         <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),1)</f>
         <v>20203.822065564778</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="10">
         <v>92</v>
@@ -8480,21 +8441,17 @@
         <f t="shared" si="9"/>
         <v>16498.684545554497</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="3">
         <f t="shared" si="10"/>
-        <v>92.000000000000014</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" si="11"/>
         <v>11737.527088303092</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="14">
+      <c r="T11" s="5"/>
+      <c r="U11" s="14">
         <f>INDEX(LINEST($O$2:$O$14,$K$2:$K$14),2)</f>
         <v>-74858.727283247674</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1.79</v>
       </c>
@@ -8560,28 +8517,24 @@
         <f t="shared" si="9"/>
         <v>17146.991143136882</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="3">
         <f t="shared" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" si="11"/>
         <v>12466.004780756575</v>
       </c>
+      <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="X12" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="Y12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="10">
         <v>100</v>
@@ -8645,32 +8598,28 @@
         <f t="shared" si="9"/>
         <v>18183.311736099597</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="3">
         <f t="shared" si="10"/>
-        <v>100.00000000000004</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" si="11"/>
         <v>13335.357791133223</v>
       </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="5" t="s">
+      <c r="V13" s="7"/>
+      <c r="W13" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
       <c r="Y13" s="5">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13">
         <v>0</v>
       </c>
-      <c r="Z13" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="10">
         <v>105</v>
@@ -8734,32 +8683,28 @@
         <f t="shared" si="9"/>
         <v>19169.059531528474</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="3">
         <f t="shared" si="10"/>
-        <v>104.99999999999997</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" si="11"/>
         <v>14379.787973212338</v>
       </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="5" t="s">
+      <c r="V14" s="7"/>
+      <c r="W14" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="X14" s="5">
+        <v>5</v>
+      </c>
       <c r="Y14" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="5">
         <v>115</v>
       </c>
-      <c r="AA14" s="5" t="s">
+      <c r="Z14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB14">
+      <c r="AA14">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="10">
         <v>110</v>
@@ -8794,27 +8739,26 @@
         <v>73.113408201463344</v>
       </c>
       <c r="Q15" s="3">
-        <f>O18/$V$4*100</f>
+        <f>O18/$U$4*100</f>
         <v>0</v>
       </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3">
-        <f t="shared" si="11"/>
+      <c r="S15" s="3">
+        <f t="shared" si="10"/>
         <v>15328.502950436463</v>
       </c>
-      <c r="U15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="Z15" s="7">
-        <f>(Z14-Z13)/(Y14-Y13)</f>
+      <c r="T15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="Y15" s="7">
+        <f>(Y14-Y13)/(X14-X13)</f>
         <v>15</v>
       </c>
-      <c r="AB15" s="5">
-        <f>(AB14-AB13)/(Y14-Y13)</f>
+      <c r="AA15" s="5">
+        <f>(AA14-AA13)/(X14-X13)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2.14</v>
       </c>
@@ -8849,23 +8793,22 @@
       <c r="N16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3">
-        <f>C16*C16*$V$7+C16*$V$8+$V$9</f>
+      <c r="S16" s="3">
+        <f>C16*C16*$U$7+C16*$U$8+$U$9</f>
         <v>16512.246590743318</v>
       </c>
+      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="Z16" s="7">
-        <f>Z14-Z15*Y14</f>
+      <c r="Y16" s="7">
+        <f>Y14-Y15*X14</f>
         <v>40</v>
       </c>
-      <c r="AB16" s="5">
-        <f>AB14-AB15*(Y14-Y13)</f>
+      <c r="AA16" s="5">
+        <f>AA14-AA15*(X14-X13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="10">
         <v>120</v>
@@ -8898,23 +8841,21 @@
       <c r="N17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3">
-        <f t="shared" si="11"/>
+      <c r="S17" s="3">
+        <f t="shared" si="10"/>
         <v>16512.246590743318</v>
       </c>
-      <c r="Z17" s="7" t="s">
+      <c r="Y17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="N20" s="1" t="s">
         <v>24</v>
       </c>
